--- a/Standard_curve/LuxPro (1C).xlsx
+++ b/Standard_curve/LuxPro (1C).xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sxzxc\Desktop\Python\Standard_curve\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/XiChenggang/anaconda_projects/Luciferase_kinetics/Luciferase-kinetics/Standard_curve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18E283D-F429-49EF-8C4C-48D125823E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3032CA88-3EF2-D34D-B069-8388E627DEF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="-16950" windowWidth="27610" windowHeight="13670" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Lysed (plain_PBS)" sheetId="1" r:id="rId1"/>
-    <sheet name="Lysed (opt_HBS)" sheetId="3" r:id="rId2"/>
-    <sheet name="Intact (FuGENE_DPBS)" sheetId="2" r:id="rId3"/>
-    <sheet name="Intact (PEI_DPBS)" sheetId="4" r:id="rId4"/>
+    <sheet name="Intact (FuGENE_HBSS)" sheetId="2" r:id="rId1"/>
+    <sheet name="Intact (PEI_HBSS)" sheetId="4" r:id="rId2"/>
+    <sheet name="Lysed (HBSS)" sheetId="1" r:id="rId3"/>
+    <sheet name="Lysed (Monod_buffer)" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,10 +25,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -343,16 +339,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B136189D-1154-46C6-9BCA-FB210D19ACC9}">
   <dimension ref="A1:AK14"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:AK14"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AI36" sqref="AI36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B1">
         <v>9.765625</v>
       </c>
@@ -462,1473 +458,1473 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1869</v>
+        <v>1586</v>
       </c>
       <c r="C2">
-        <v>1922</v>
+        <v>1603</v>
       </c>
       <c r="D2">
-        <v>1783</v>
+        <v>1698</v>
       </c>
       <c r="E2">
-        <v>2242</v>
+        <v>1966</v>
       </c>
       <c r="F2">
-        <v>2081</v>
+        <v>2647</v>
       </c>
       <c r="G2">
-        <v>2301</v>
+        <v>2754</v>
       </c>
       <c r="H2">
-        <v>2491</v>
+        <v>2348</v>
       </c>
       <c r="I2">
-        <v>2450</v>
+        <v>2945</v>
       </c>
       <c r="J2">
-        <v>2852</v>
+        <v>4184</v>
       </c>
       <c r="K2">
-        <v>2826</v>
+        <v>3430</v>
       </c>
       <c r="L2">
-        <v>2865</v>
+        <v>4502</v>
       </c>
       <c r="M2">
-        <v>3165</v>
+        <v>8151</v>
       </c>
       <c r="N2">
-        <v>3544</v>
+        <v>4697</v>
       </c>
       <c r="O2">
-        <v>3383</v>
+        <v>7111</v>
       </c>
       <c r="P2">
-        <v>3980</v>
+        <v>9631</v>
       </c>
       <c r="Q2">
-        <v>8678</v>
+        <v>10341</v>
       </c>
       <c r="R2">
-        <v>6531</v>
+        <v>15964</v>
       </c>
       <c r="S2">
-        <v>8707</v>
+        <v>24330</v>
       </c>
       <c r="T2">
-        <v>26678</v>
+        <v>26867</v>
       </c>
       <c r="U2">
-        <v>17962</v>
+        <v>24709</v>
       </c>
       <c r="V2">
-        <v>24821</v>
+        <v>39865</v>
       </c>
       <c r="W2">
-        <v>53548</v>
+        <v>50015</v>
       </c>
       <c r="X2">
-        <v>49929</v>
+        <v>67315</v>
       </c>
       <c r="Y2">
-        <v>67156</v>
+        <v>66722</v>
       </c>
       <c r="Z2">
-        <v>110837</v>
+        <v>142638</v>
       </c>
       <c r="AA2">
-        <v>109829</v>
+        <v>115394</v>
       </c>
       <c r="AB2">
-        <v>131927</v>
+        <v>116197</v>
       </c>
       <c r="AC2">
-        <v>159369</v>
+        <v>325282</v>
       </c>
       <c r="AD2">
-        <v>171578</v>
+        <v>261657</v>
       </c>
       <c r="AE2">
-        <v>209530</v>
+        <v>289657</v>
       </c>
       <c r="AF2">
-        <v>299862</v>
+        <v>471691</v>
       </c>
       <c r="AG2">
-        <v>281327</v>
+        <v>458097</v>
       </c>
       <c r="AH2">
-        <v>299969</v>
+        <v>350578</v>
       </c>
       <c r="AI2">
-        <v>400675</v>
+        <v>617679</v>
       </c>
       <c r="AJ2">
-        <v>414410</v>
+        <v>687492</v>
       </c>
       <c r="AK2">
-        <v>402286</v>
+        <v>603854</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2.5</v>
       </c>
       <c r="B3">
-        <v>1223</v>
+        <v>1005</v>
       </c>
       <c r="C3">
-        <v>1028</v>
+        <v>1114</v>
       </c>
       <c r="D3">
-        <v>1309</v>
+        <v>1004</v>
       </c>
       <c r="E3">
-        <v>1881</v>
+        <v>1208</v>
       </c>
       <c r="F3">
-        <v>1414</v>
+        <v>1680</v>
       </c>
       <c r="G3">
-        <v>1680</v>
+        <v>1785</v>
       </c>
       <c r="H3">
-        <v>1517</v>
+        <v>1618</v>
       </c>
       <c r="I3">
-        <v>1469</v>
+        <v>2222</v>
       </c>
       <c r="J3">
-        <v>1838</v>
+        <v>2644</v>
       </c>
       <c r="K3">
-        <v>1906</v>
+        <v>2932</v>
       </c>
       <c r="L3">
-        <v>1766</v>
+        <v>2934</v>
       </c>
       <c r="M3">
-        <v>1980</v>
+        <v>5405</v>
       </c>
       <c r="N3">
-        <v>2047</v>
+        <v>3820</v>
       </c>
       <c r="O3">
-        <v>2177</v>
+        <v>5575</v>
       </c>
       <c r="P3">
-        <v>2588</v>
+        <v>7059</v>
       </c>
       <c r="Q3">
-        <v>6133</v>
+        <v>9325</v>
       </c>
       <c r="R3">
-        <v>4424</v>
+        <v>15057</v>
       </c>
       <c r="S3">
-        <v>6167</v>
+        <v>19638</v>
       </c>
       <c r="T3">
-        <v>20282</v>
+        <v>28167</v>
       </c>
       <c r="U3">
-        <v>12972</v>
+        <v>21802</v>
       </c>
       <c r="V3">
-        <v>17950</v>
+        <v>31763</v>
       </c>
       <c r="W3">
-        <v>42265</v>
+        <v>46578</v>
       </c>
       <c r="X3">
-        <v>38366</v>
+        <v>56957</v>
       </c>
       <c r="Y3">
-        <v>48077</v>
+        <v>55589</v>
       </c>
       <c r="Z3">
-        <v>89941</v>
+        <v>130538</v>
       </c>
       <c r="AA3">
-        <v>86470</v>
+        <v>105088</v>
       </c>
       <c r="AB3">
-        <v>97145</v>
+        <v>100640</v>
       </c>
       <c r="AC3">
-        <v>132925</v>
+        <v>288783</v>
       </c>
       <c r="AD3">
-        <v>140594</v>
+        <v>217642</v>
       </c>
       <c r="AE3">
-        <v>160308</v>
+        <v>242364</v>
       </c>
       <c r="AF3">
-        <v>253139</v>
+        <v>431318</v>
       </c>
       <c r="AG3">
-        <v>224439</v>
+        <v>393573</v>
       </c>
       <c r="AH3">
-        <v>250333</v>
+        <v>280156</v>
       </c>
       <c r="AI3">
-        <v>353947</v>
+        <v>593291</v>
       </c>
       <c r="AJ3">
-        <v>354362</v>
+        <v>602433</v>
       </c>
       <c r="AK3">
-        <v>346361</v>
+        <v>530582</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5</v>
       </c>
       <c r="B4">
-        <v>769</v>
+        <v>811</v>
       </c>
       <c r="C4">
-        <v>1060</v>
+        <v>698</v>
       </c>
       <c r="D4">
-        <v>945</v>
+        <v>1000</v>
       </c>
       <c r="E4">
-        <v>1284</v>
+        <v>1037</v>
       </c>
       <c r="F4">
-        <v>1295</v>
+        <v>1323</v>
       </c>
       <c r="G4">
-        <v>1387</v>
+        <v>1491</v>
       </c>
       <c r="H4">
-        <v>1216</v>
+        <v>1491</v>
       </c>
       <c r="I4">
-        <v>1494</v>
+        <v>1991</v>
       </c>
       <c r="J4">
-        <v>1432</v>
+        <v>2073</v>
       </c>
       <c r="K4">
-        <v>1583</v>
+        <v>2643</v>
       </c>
       <c r="L4">
-        <v>1618</v>
+        <v>2966</v>
       </c>
       <c r="M4">
-        <v>1724</v>
+        <v>4428</v>
       </c>
       <c r="N4">
-        <v>1971</v>
+        <v>3740</v>
       </c>
       <c r="O4">
-        <v>2099</v>
+        <v>5165</v>
       </c>
       <c r="P4">
-        <v>2417</v>
+        <v>7142</v>
       </c>
       <c r="Q4">
-        <v>5802</v>
+        <v>9395</v>
       </c>
       <c r="R4">
-        <v>4049</v>
+        <v>13934</v>
       </c>
       <c r="S4">
-        <v>5263</v>
+        <v>18718</v>
       </c>
       <c r="T4">
-        <v>18498</v>
+        <v>29595</v>
       </c>
       <c r="U4">
-        <v>11984</v>
+        <v>22394</v>
       </c>
       <c r="V4">
-        <v>15579</v>
+        <v>28950</v>
       </c>
       <c r="W4">
-        <v>38090</v>
+        <v>48589</v>
       </c>
       <c r="X4">
-        <v>34923</v>
+        <v>53300</v>
       </c>
       <c r="Y4">
-        <v>42993</v>
+        <v>51341</v>
       </c>
       <c r="Z4">
-        <v>81959</v>
+        <v>128366</v>
       </c>
       <c r="AA4">
-        <v>78276</v>
+        <v>98589</v>
       </c>
       <c r="AB4">
-        <v>86632</v>
+        <v>92362</v>
       </c>
       <c r="AC4">
-        <v>118485</v>
+        <v>283687</v>
       </c>
       <c r="AD4">
-        <v>132084</v>
+        <v>206429</v>
       </c>
       <c r="AE4">
-        <v>146305</v>
+        <v>226381</v>
       </c>
       <c r="AF4">
-        <v>243173</v>
+        <v>412029</v>
       </c>
       <c r="AG4">
-        <v>215519</v>
+        <v>373327</v>
       </c>
       <c r="AH4">
-        <v>221573</v>
+        <v>255957</v>
       </c>
       <c r="AI4">
-        <v>332655</v>
+        <v>563481</v>
       </c>
       <c r="AJ4">
-        <v>339221</v>
+        <v>570982</v>
       </c>
       <c r="AK4">
-        <v>316369</v>
+        <v>487357</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>7.5</v>
       </c>
       <c r="B5">
-        <v>802</v>
+        <v>725</v>
       </c>
       <c r="C5">
-        <v>739</v>
+        <v>770</v>
       </c>
       <c r="D5">
-        <v>1017</v>
+        <v>801</v>
       </c>
       <c r="E5">
-        <v>1077</v>
+        <v>865</v>
       </c>
       <c r="F5">
-        <v>1040</v>
+        <v>1276</v>
       </c>
       <c r="G5">
-        <v>1223</v>
+        <v>1339</v>
       </c>
       <c r="H5">
-        <v>1125</v>
+        <v>1514</v>
       </c>
       <c r="I5">
-        <v>1104</v>
+        <v>1963</v>
       </c>
       <c r="J5">
-        <v>1496</v>
+        <v>2082</v>
       </c>
       <c r="K5">
-        <v>1800</v>
+        <v>2633</v>
       </c>
       <c r="L5">
-        <v>1411</v>
+        <v>2797</v>
       </c>
       <c r="M5">
-        <v>1661</v>
+        <v>4609</v>
       </c>
       <c r="N5">
-        <v>1656</v>
+        <v>3951</v>
       </c>
       <c r="O5">
-        <v>1716</v>
+        <v>5480</v>
       </c>
       <c r="P5">
-        <v>2230</v>
+        <v>13474</v>
       </c>
       <c r="Q5">
-        <v>5500</v>
+        <v>10306</v>
       </c>
       <c r="R5">
-        <v>3932</v>
+        <v>13948</v>
       </c>
       <c r="S5">
-        <v>5462</v>
+        <v>17309</v>
       </c>
       <c r="T5">
-        <v>18316</v>
+        <v>29952</v>
       </c>
       <c r="U5">
-        <v>11204</v>
+        <v>23914</v>
       </c>
       <c r="V5">
-        <v>14901</v>
+        <v>27508</v>
       </c>
       <c r="W5">
-        <v>37199</v>
+        <v>49589</v>
       </c>
       <c r="X5">
-        <v>32690</v>
+        <v>52388</v>
       </c>
       <c r="Y5">
-        <v>42034</v>
+        <v>54891</v>
       </c>
       <c r="Z5">
-        <v>79199</v>
+        <v>134188</v>
       </c>
       <c r="AA5">
-        <v>75541</v>
+        <v>95689</v>
       </c>
       <c r="AB5">
-        <v>82807</v>
+        <v>88290</v>
       </c>
       <c r="AC5">
-        <v>118614</v>
+        <v>292204</v>
       </c>
       <c r="AD5">
-        <v>123209</v>
+        <v>198800</v>
       </c>
       <c r="AE5">
-        <v>136222</v>
+        <v>215306</v>
       </c>
       <c r="AF5">
-        <v>231106</v>
+        <v>401237</v>
       </c>
       <c r="AG5">
-        <v>205104</v>
+        <v>358976</v>
       </c>
       <c r="AH5">
-        <v>209226</v>
+        <v>237793</v>
       </c>
       <c r="AI5">
-        <v>320284</v>
+        <v>549944</v>
       </c>
       <c r="AJ5">
-        <v>330967</v>
+        <v>539493</v>
       </c>
       <c r="AK5">
-        <v>311896</v>
+        <v>475300</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>10</v>
       </c>
       <c r="B6">
-        <v>700</v>
+        <v>746</v>
       </c>
       <c r="C6">
-        <v>727</v>
+        <v>572</v>
       </c>
       <c r="D6">
-        <v>965</v>
+        <v>796</v>
       </c>
       <c r="E6">
-        <v>1220</v>
+        <v>772</v>
       </c>
       <c r="F6">
-        <v>1043</v>
+        <v>1118</v>
       </c>
       <c r="G6">
-        <v>1210</v>
+        <v>1367</v>
       </c>
       <c r="H6">
-        <v>1189</v>
+        <v>1281</v>
       </c>
       <c r="I6">
-        <v>1078</v>
+        <v>1729</v>
       </c>
       <c r="J6">
-        <v>1305</v>
+        <v>1839</v>
       </c>
       <c r="K6">
-        <v>1826</v>
+        <v>2683</v>
       </c>
       <c r="L6">
-        <v>1363</v>
+        <v>2934</v>
       </c>
       <c r="M6">
-        <v>1705</v>
+        <v>4574</v>
       </c>
       <c r="N6">
-        <v>1717</v>
+        <v>4385</v>
       </c>
       <c r="O6">
-        <v>1771</v>
+        <v>5321</v>
       </c>
       <c r="P6">
-        <v>2217</v>
+        <v>14503</v>
       </c>
       <c r="Q6">
-        <v>5124</v>
+        <v>10560</v>
       </c>
       <c r="R6">
-        <v>3922</v>
+        <v>13831</v>
       </c>
       <c r="S6">
-        <v>5327</v>
+        <v>16919</v>
       </c>
       <c r="T6">
-        <v>17977</v>
+        <v>30955</v>
       </c>
       <c r="U6">
-        <v>11127</v>
+        <v>23716</v>
       </c>
       <c r="V6">
-        <v>14642</v>
+        <v>26468</v>
       </c>
       <c r="W6">
-        <v>37112</v>
+        <v>49592</v>
       </c>
       <c r="X6">
-        <v>32315</v>
+        <v>51378</v>
       </c>
       <c r="Y6">
-        <v>40841</v>
+        <v>51703</v>
       </c>
       <c r="Z6">
-        <v>77845</v>
+        <v>125516</v>
       </c>
       <c r="AA6">
-        <v>73975</v>
+        <v>92403</v>
       </c>
       <c r="AB6">
-        <v>80620</v>
+        <v>86780</v>
       </c>
       <c r="AC6">
-        <v>112649</v>
+        <v>283547</v>
       </c>
       <c r="AD6">
-        <v>117768</v>
+        <v>201267</v>
       </c>
       <c r="AE6">
-        <v>136137</v>
+        <v>213114</v>
       </c>
       <c r="AF6">
-        <v>226348</v>
+        <v>396214</v>
       </c>
       <c r="AG6">
-        <v>194909</v>
+        <v>357850</v>
       </c>
       <c r="AH6">
-        <v>209067</v>
+        <v>232080</v>
       </c>
       <c r="AI6">
-        <v>312330</v>
+        <v>560718</v>
       </c>
       <c r="AJ6">
-        <v>311229</v>
+        <v>530990</v>
       </c>
       <c r="AK6">
-        <v>297739</v>
+        <v>456130</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>12.5</v>
       </c>
       <c r="B7">
-        <v>764</v>
+        <v>636</v>
       </c>
       <c r="C7">
-        <v>769</v>
+        <v>608</v>
       </c>
       <c r="D7">
-        <v>752</v>
+        <v>616</v>
       </c>
       <c r="E7">
-        <v>1080</v>
+        <v>862</v>
       </c>
       <c r="F7">
-        <v>941</v>
+        <v>989</v>
       </c>
       <c r="G7">
-        <v>1202</v>
+        <v>1169</v>
       </c>
       <c r="H7">
-        <v>1199</v>
+        <v>1302</v>
       </c>
       <c r="I7">
-        <v>1142</v>
+        <v>1739</v>
       </c>
       <c r="J7">
-        <v>1177</v>
+        <v>1694</v>
       </c>
       <c r="K7">
-        <v>1666</v>
+        <v>2926</v>
       </c>
       <c r="L7">
-        <v>1157</v>
+        <v>2752</v>
       </c>
       <c r="M7">
-        <v>1390</v>
+        <v>4010</v>
       </c>
       <c r="N7">
-        <v>1465</v>
+        <v>4703</v>
       </c>
       <c r="O7">
-        <v>1655</v>
+        <v>4999</v>
       </c>
       <c r="P7">
-        <v>1952</v>
+        <v>11275</v>
       </c>
       <c r="Q7">
-        <v>5151</v>
+        <v>10972</v>
       </c>
       <c r="R7">
-        <v>3431</v>
+        <v>13619</v>
       </c>
       <c r="S7">
-        <v>4685</v>
+        <v>14884</v>
       </c>
       <c r="T7">
-        <v>17609</v>
+        <v>30775</v>
       </c>
       <c r="U7">
-        <v>11025</v>
+        <v>22169</v>
       </c>
       <c r="V7">
-        <v>14174</v>
+        <v>24513</v>
       </c>
       <c r="W7">
-        <v>36203</v>
+        <v>50509</v>
       </c>
       <c r="X7">
-        <v>32386</v>
+        <v>48367</v>
       </c>
       <c r="Y7">
-        <v>39404</v>
+        <v>46660</v>
       </c>
       <c r="Z7">
-        <v>75099</v>
+        <v>125264</v>
       </c>
       <c r="AA7">
-        <v>71893</v>
+        <v>87803</v>
       </c>
       <c r="AB7">
-        <v>76244</v>
+        <v>82036</v>
       </c>
       <c r="AC7">
-        <v>106929</v>
+        <v>280653</v>
       </c>
       <c r="AD7">
-        <v>116364</v>
+        <v>196011</v>
       </c>
       <c r="AE7">
-        <v>126948</v>
+        <v>206288</v>
       </c>
       <c r="AF7">
-        <v>209396</v>
+        <v>378881</v>
       </c>
       <c r="AG7">
-        <v>190365</v>
+        <v>354014</v>
       </c>
       <c r="AH7">
-        <v>189546</v>
+        <v>229408</v>
       </c>
       <c r="AI7">
-        <v>298335</v>
+        <v>570960</v>
       </c>
       <c r="AJ7">
-        <v>300708</v>
+        <v>496875</v>
       </c>
       <c r="AK7">
-        <v>279530</v>
+        <v>420792</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>15</v>
       </c>
       <c r="B8">
-        <v>638</v>
+        <v>604</v>
       </c>
       <c r="C8">
-        <v>778</v>
+        <v>521</v>
       </c>
       <c r="D8">
-        <v>695</v>
+        <v>727</v>
       </c>
       <c r="E8">
-        <v>919</v>
+        <v>788</v>
       </c>
       <c r="F8">
-        <v>851</v>
+        <v>1086</v>
       </c>
       <c r="G8">
-        <v>931</v>
+        <v>1083</v>
       </c>
       <c r="H8">
-        <v>922</v>
+        <v>1164</v>
       </c>
       <c r="I8">
-        <v>903</v>
+        <v>1527</v>
       </c>
       <c r="J8">
-        <v>1086</v>
+        <v>1425</v>
       </c>
       <c r="K8">
-        <v>1588</v>
+        <v>2757</v>
       </c>
       <c r="L8">
-        <v>1099</v>
+        <v>2305</v>
       </c>
       <c r="M8">
-        <v>1412</v>
+        <v>3522</v>
       </c>
       <c r="N8">
-        <v>1346</v>
+        <v>4034</v>
       </c>
       <c r="O8">
-        <v>1471</v>
+        <v>4803</v>
       </c>
       <c r="P8">
-        <v>1727</v>
+        <v>10097</v>
       </c>
       <c r="Q8">
-        <v>4883</v>
+        <v>11079</v>
       </c>
       <c r="R8">
-        <v>3452</v>
+        <v>12591</v>
       </c>
       <c r="S8">
-        <v>4613</v>
+        <v>14436</v>
       </c>
       <c r="T8">
-        <v>17612</v>
+        <v>30784</v>
       </c>
       <c r="U8">
-        <v>11147</v>
+        <v>22924</v>
       </c>
       <c r="V8">
-        <v>13554</v>
+        <v>23682</v>
       </c>
       <c r="W8">
-        <v>36462</v>
+        <v>50295</v>
       </c>
       <c r="X8">
-        <v>31907</v>
+        <v>46701</v>
       </c>
       <c r="Y8">
-        <v>38459</v>
+        <v>44625</v>
       </c>
       <c r="Z8">
-        <v>76041</v>
+        <v>122781</v>
       </c>
       <c r="AA8">
-        <v>72676</v>
+        <v>84324</v>
       </c>
       <c r="AB8">
-        <v>75650</v>
+        <v>79705</v>
       </c>
       <c r="AC8">
-        <v>107460</v>
+        <v>275547</v>
       </c>
       <c r="AD8">
-        <v>120390</v>
+        <v>198965</v>
       </c>
       <c r="AE8">
-        <v>128306</v>
+        <v>195738</v>
       </c>
       <c r="AF8">
-        <v>210223</v>
+        <v>376139</v>
       </c>
       <c r="AG8">
-        <v>185433</v>
+        <v>340532</v>
       </c>
       <c r="AH8">
-        <v>188917</v>
+        <v>215355</v>
       </c>
       <c r="AI8">
-        <v>286967</v>
+        <v>554704</v>
       </c>
       <c r="AJ8">
-        <v>293892</v>
+        <v>485217</v>
       </c>
       <c r="AK8">
-        <v>269416</v>
+        <v>396317</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>17.5</v>
       </c>
       <c r="B9">
-        <v>655</v>
+        <v>643</v>
       </c>
       <c r="C9">
-        <v>542</v>
+        <v>474</v>
       </c>
       <c r="D9">
-        <v>704</v>
+        <v>751</v>
       </c>
       <c r="E9">
-        <v>875</v>
+        <v>826</v>
       </c>
       <c r="F9">
-        <v>762</v>
+        <v>956</v>
       </c>
       <c r="G9">
-        <v>817</v>
+        <v>1132</v>
       </c>
       <c r="H9">
-        <v>805</v>
+        <v>1273</v>
       </c>
       <c r="I9">
-        <v>992</v>
+        <v>1710</v>
       </c>
       <c r="J9">
-        <v>1017</v>
+        <v>1450</v>
       </c>
       <c r="K9">
-        <v>1517</v>
+        <v>2778</v>
       </c>
       <c r="L9">
-        <v>1176</v>
+        <v>2360</v>
       </c>
       <c r="M9">
-        <v>1239</v>
+        <v>3465</v>
       </c>
       <c r="N9">
-        <v>1431</v>
+        <v>4534</v>
       </c>
       <c r="O9">
-        <v>1484</v>
+        <v>4510</v>
       </c>
       <c r="P9">
-        <v>1800</v>
+        <v>9110</v>
       </c>
       <c r="Q9">
-        <v>4928</v>
+        <v>11290</v>
       </c>
       <c r="R9">
-        <v>3615</v>
+        <v>12456</v>
       </c>
       <c r="S9">
-        <v>4412</v>
+        <v>13829</v>
       </c>
       <c r="T9">
-        <v>17566</v>
+        <v>31073</v>
       </c>
       <c r="U9">
-        <v>10951</v>
+        <v>22304</v>
       </c>
       <c r="V9">
-        <v>13908</v>
+        <v>22853</v>
       </c>
       <c r="W9">
-        <v>36216</v>
+        <v>50706</v>
       </c>
       <c r="X9">
-        <v>32457</v>
+        <v>44907</v>
       </c>
       <c r="Y9">
-        <v>37832</v>
+        <v>43091</v>
       </c>
       <c r="Z9">
-        <v>74798</v>
+        <v>125408</v>
       </c>
       <c r="AA9">
-        <v>70250</v>
+        <v>81240</v>
       </c>
       <c r="AB9">
-        <v>74256</v>
+        <v>77079</v>
       </c>
       <c r="AC9">
-        <v>104481</v>
+        <v>280810</v>
       </c>
       <c r="AD9">
-        <v>116114</v>
+        <v>192298</v>
       </c>
       <c r="AE9">
-        <v>120099</v>
+        <v>195951</v>
       </c>
       <c r="AF9">
-        <v>203179</v>
+        <v>370109</v>
       </c>
       <c r="AG9">
-        <v>183523</v>
+        <v>334405</v>
       </c>
       <c r="AH9">
-        <v>181509</v>
+        <v>209007</v>
       </c>
       <c r="AI9">
-        <v>284413</v>
+        <v>521809</v>
       </c>
       <c r="AJ9">
-        <v>287209</v>
+        <v>480997</v>
       </c>
       <c r="AK9">
-        <v>271496</v>
+        <v>383622</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>20</v>
       </c>
       <c r="B10">
-        <v>725</v>
+        <v>539</v>
       </c>
       <c r="C10">
-        <v>549</v>
+        <v>448</v>
       </c>
       <c r="D10">
-        <v>649</v>
+        <v>615</v>
       </c>
       <c r="E10">
-        <v>938</v>
+        <v>797</v>
       </c>
       <c r="F10">
-        <v>814</v>
+        <v>856</v>
       </c>
       <c r="G10">
-        <v>780</v>
+        <v>1063</v>
       </c>
       <c r="H10">
-        <v>854</v>
+        <v>1135</v>
       </c>
       <c r="I10">
-        <v>911</v>
+        <v>1589</v>
       </c>
       <c r="J10">
-        <v>955</v>
+        <v>1546</v>
       </c>
       <c r="K10">
-        <v>1687</v>
+        <v>2934</v>
       </c>
       <c r="L10">
-        <v>1037</v>
+        <v>2158</v>
       </c>
       <c r="M10">
-        <v>1237</v>
+        <v>3305</v>
       </c>
       <c r="N10">
-        <v>1355</v>
+        <v>4444</v>
       </c>
       <c r="O10">
-        <v>1336</v>
+        <v>4679</v>
       </c>
       <c r="P10">
-        <v>1633</v>
+        <v>9177</v>
       </c>
       <c r="Q10">
-        <v>4940</v>
+        <v>11738</v>
       </c>
       <c r="R10">
-        <v>3485</v>
+        <v>12186</v>
       </c>
       <c r="S10">
-        <v>4502</v>
+        <v>13590</v>
       </c>
       <c r="T10">
-        <v>17833</v>
+        <v>31235</v>
       </c>
       <c r="U10">
-        <v>11042</v>
+        <v>23349</v>
       </c>
       <c r="V10">
-        <v>13151</v>
+        <v>21793</v>
       </c>
       <c r="W10">
-        <v>35780</v>
+        <v>48885</v>
       </c>
       <c r="X10">
-        <v>32467</v>
+        <v>43564</v>
       </c>
       <c r="Y10">
-        <v>37847</v>
+        <v>43133</v>
       </c>
       <c r="Z10">
-        <v>74818</v>
+        <v>122426</v>
       </c>
       <c r="AA10">
-        <v>69886</v>
+        <v>79038</v>
       </c>
       <c r="AB10">
-        <v>74393</v>
+        <v>76525</v>
       </c>
       <c r="AC10">
-        <v>107443</v>
+        <v>268642</v>
       </c>
       <c r="AD10">
-        <v>111857</v>
+        <v>193664</v>
       </c>
       <c r="AE10">
-        <v>121110</v>
+        <v>193092</v>
       </c>
       <c r="AF10">
-        <v>201974</v>
+        <v>371944</v>
       </c>
       <c r="AG10">
-        <v>183875</v>
+        <v>327322</v>
       </c>
       <c r="AH10">
-        <v>176068</v>
+        <v>215066</v>
       </c>
       <c r="AI10">
-        <v>280159</v>
+        <v>493859</v>
       </c>
       <c r="AJ10">
-        <v>285060</v>
+        <v>468135</v>
       </c>
       <c r="AK10">
-        <v>258768</v>
+        <v>387901</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>22.5</v>
       </c>
       <c r="B11">
-        <v>588</v>
+        <v>548</v>
       </c>
       <c r="C11">
-        <v>623</v>
+        <v>549</v>
       </c>
       <c r="D11">
-        <v>684</v>
+        <v>592</v>
       </c>
       <c r="E11">
-        <v>685</v>
+        <v>704</v>
       </c>
       <c r="F11">
-        <v>754</v>
+        <v>822</v>
       </c>
       <c r="G11">
-        <v>921</v>
+        <v>1047</v>
       </c>
       <c r="H11">
-        <v>818</v>
+        <v>1387</v>
       </c>
       <c r="I11">
-        <v>803</v>
+        <v>1507</v>
       </c>
       <c r="J11">
-        <v>924</v>
+        <v>1423</v>
       </c>
       <c r="K11">
-        <v>1458</v>
+        <v>2831</v>
       </c>
       <c r="L11">
-        <v>1033</v>
+        <v>2233</v>
       </c>
       <c r="M11">
-        <v>1246</v>
+        <v>2944</v>
       </c>
       <c r="N11">
-        <v>1342</v>
+        <v>4668</v>
       </c>
       <c r="O11">
-        <v>1294</v>
+        <v>4766</v>
       </c>
       <c r="P11">
-        <v>1624</v>
+        <v>8669</v>
       </c>
       <c r="Q11">
-        <v>4957</v>
+        <v>12835</v>
       </c>
       <c r="R11">
-        <v>3282</v>
+        <v>12129</v>
       </c>
       <c r="S11">
-        <v>4225</v>
+        <v>13157</v>
       </c>
       <c r="T11">
-        <v>17066</v>
+        <v>30659</v>
       </c>
       <c r="U11">
-        <v>10308</v>
+        <v>22563</v>
       </c>
       <c r="V11">
-        <v>13481</v>
+        <v>21574</v>
       </c>
       <c r="W11">
-        <v>36177</v>
+        <v>49848</v>
       </c>
       <c r="X11">
-        <v>31793</v>
+        <v>43076</v>
       </c>
       <c r="Y11">
-        <v>37672</v>
+        <v>41554</v>
       </c>
       <c r="Z11">
-        <v>73640</v>
+        <v>119170</v>
       </c>
       <c r="AA11">
-        <v>69731</v>
+        <v>75947</v>
       </c>
       <c r="AB11">
-        <v>73172</v>
+        <v>74770</v>
       </c>
       <c r="AC11">
-        <v>108931</v>
+        <v>276402</v>
       </c>
       <c r="AD11">
-        <v>112494</v>
+        <v>190005</v>
       </c>
       <c r="AE11">
-        <v>126601</v>
+        <v>180620</v>
       </c>
       <c r="AF11">
-        <v>188554</v>
+        <v>364198</v>
       </c>
       <c r="AG11">
-        <v>173586</v>
+        <v>333402</v>
       </c>
       <c r="AH11">
-        <v>176413</v>
+        <v>205943</v>
       </c>
       <c r="AI11">
-        <v>271599</v>
+        <v>464017</v>
       </c>
       <c r="AJ11">
-        <v>273936</v>
+        <v>444432</v>
       </c>
       <c r="AK11">
-        <v>257849</v>
+        <v>373723</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>25</v>
       </c>
       <c r="B12">
-        <v>422</v>
+        <v>449</v>
       </c>
       <c r="C12">
-        <v>603</v>
+        <v>529</v>
       </c>
       <c r="D12">
-        <v>592</v>
+        <v>408</v>
       </c>
       <c r="E12">
-        <v>869</v>
+        <v>804</v>
       </c>
       <c r="F12">
-        <v>783</v>
+        <v>918</v>
       </c>
       <c r="G12">
-        <v>761</v>
+        <v>975</v>
       </c>
       <c r="H12">
-        <v>715</v>
+        <v>1329</v>
       </c>
       <c r="I12">
-        <v>904</v>
+        <v>1416</v>
       </c>
       <c r="J12">
-        <v>784</v>
+        <v>1211</v>
       </c>
       <c r="K12">
-        <v>1408</v>
+        <v>2834</v>
       </c>
       <c r="L12">
-        <v>882</v>
+        <v>2101</v>
       </c>
       <c r="M12">
-        <v>1177</v>
+        <v>2914</v>
       </c>
       <c r="N12">
-        <v>1146</v>
+        <v>4868</v>
       </c>
       <c r="O12">
-        <v>1256</v>
+        <v>4420</v>
       </c>
       <c r="P12">
-        <v>1373</v>
+        <v>8341</v>
       </c>
       <c r="Q12">
-        <v>4863</v>
+        <v>14398</v>
       </c>
       <c r="R12">
-        <v>3190</v>
+        <v>12006</v>
       </c>
       <c r="S12">
-        <v>4305</v>
+        <v>12952</v>
       </c>
       <c r="T12">
-        <v>17643</v>
+        <v>30844</v>
       </c>
       <c r="U12">
-        <v>10554</v>
+        <v>22692</v>
       </c>
       <c r="V12">
-        <v>13353</v>
+        <v>21622</v>
       </c>
       <c r="W12">
-        <v>34898</v>
+        <v>49725</v>
       </c>
       <c r="X12">
-        <v>31273</v>
+        <v>41240</v>
       </c>
       <c r="Y12">
-        <v>38153</v>
+        <v>39921</v>
       </c>
       <c r="Z12">
-        <v>73621</v>
+        <v>114291</v>
       </c>
       <c r="AA12">
-        <v>68339</v>
+        <v>72377</v>
       </c>
       <c r="AB12">
-        <v>72551</v>
+        <v>72788</v>
       </c>
       <c r="AC12">
-        <v>104026</v>
+        <v>266538</v>
       </c>
       <c r="AD12">
-        <v>105915</v>
+        <v>191626</v>
       </c>
       <c r="AE12">
-        <v>122061</v>
+        <v>182074</v>
       </c>
       <c r="AF12">
-        <v>188805</v>
+        <v>359242</v>
       </c>
       <c r="AG12">
-        <v>172694</v>
+        <v>316460</v>
       </c>
       <c r="AH12">
-        <v>175120</v>
+        <v>200943</v>
       </c>
       <c r="AI12">
-        <v>266539</v>
+        <v>428596</v>
       </c>
       <c r="AJ12">
-        <v>268409</v>
+        <v>428322</v>
       </c>
       <c r="AK12">
-        <v>252385</v>
+        <v>363216</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>27.5</v>
       </c>
       <c r="B13">
-        <v>516</v>
+        <v>496</v>
       </c>
       <c r="C13">
-        <v>594</v>
+        <v>429</v>
       </c>
       <c r="D13">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="E13">
-        <v>808</v>
+        <v>736</v>
       </c>
       <c r="F13">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="G13">
-        <v>785</v>
+        <v>906</v>
       </c>
       <c r="H13">
-        <v>712</v>
+        <v>1541</v>
       </c>
       <c r="I13">
-        <v>745</v>
+        <v>1546</v>
       </c>
       <c r="J13">
-        <v>876</v>
+        <v>1161</v>
       </c>
       <c r="K13">
-        <v>1426</v>
+        <v>3074</v>
       </c>
       <c r="L13">
-        <v>760</v>
+        <v>2059</v>
       </c>
       <c r="M13">
-        <v>1050</v>
+        <v>2855</v>
       </c>
       <c r="N13">
-        <v>1206</v>
+        <v>4999</v>
       </c>
       <c r="O13">
-        <v>1209</v>
+        <v>4209</v>
       </c>
       <c r="P13">
-        <v>1536</v>
+        <v>8169</v>
       </c>
       <c r="Q13">
-        <v>4843</v>
+        <v>15573</v>
       </c>
       <c r="R13">
-        <v>3288</v>
+        <v>11565</v>
       </c>
       <c r="S13">
-        <v>4222</v>
+        <v>12454</v>
       </c>
       <c r="T13">
-        <v>17025</v>
+        <v>30067</v>
       </c>
       <c r="U13">
-        <v>10804</v>
+        <v>21825</v>
       </c>
       <c r="V13">
-        <v>12866</v>
+        <v>20030</v>
       </c>
       <c r="W13">
-        <v>35116</v>
+        <v>48499</v>
       </c>
       <c r="X13">
-        <v>30886</v>
+        <v>39763</v>
       </c>
       <c r="Y13">
-        <v>36489</v>
+        <v>39130</v>
       </c>
       <c r="Z13">
-        <v>73190</v>
+        <v>109433</v>
       </c>
       <c r="AA13">
-        <v>68506</v>
+        <v>70477</v>
       </c>
       <c r="AB13">
-        <v>71277</v>
+        <v>70381</v>
       </c>
       <c r="AC13">
-        <v>101600</v>
+        <v>254950</v>
       </c>
       <c r="AD13">
-        <v>108331</v>
+        <v>192444</v>
       </c>
       <c r="AE13">
-        <v>115387</v>
+        <v>168132</v>
       </c>
       <c r="AF13">
-        <v>193477</v>
+        <v>355759</v>
       </c>
       <c r="AG13">
-        <v>172634</v>
+        <v>322400</v>
       </c>
       <c r="AH13">
-        <v>175081</v>
+        <v>199793</v>
       </c>
       <c r="AI13">
-        <v>260973</v>
+        <v>400486</v>
       </c>
       <c r="AJ13">
-        <v>264104</v>
+        <v>430190</v>
       </c>
       <c r="AK13">
-        <v>246508</v>
+        <v>350691</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>30</v>
       </c>
       <c r="B14">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="C14">
-        <v>518</v>
+        <v>424</v>
       </c>
       <c r="D14">
-        <v>581</v>
+        <v>535</v>
       </c>
       <c r="E14">
-        <v>734</v>
+        <v>707</v>
       </c>
       <c r="F14">
-        <v>685</v>
+        <v>768</v>
       </c>
       <c r="G14">
-        <v>574</v>
+        <v>882</v>
       </c>
       <c r="H14">
-        <v>707</v>
+        <v>1629</v>
       </c>
       <c r="I14">
-        <v>887</v>
+        <v>1406</v>
       </c>
       <c r="J14">
-        <v>725</v>
+        <v>1225</v>
       </c>
       <c r="K14">
-        <v>1339</v>
+        <v>2915</v>
       </c>
       <c r="L14">
-        <v>858</v>
+        <v>2056</v>
       </c>
       <c r="M14">
-        <v>994</v>
+        <v>2650</v>
       </c>
       <c r="N14">
-        <v>1048</v>
+        <v>4725</v>
       </c>
       <c r="O14">
-        <v>1310</v>
+        <v>4179</v>
       </c>
       <c r="P14">
-        <v>1493</v>
+        <v>7728</v>
       </c>
       <c r="Q14">
-        <v>4695</v>
+        <v>16635</v>
       </c>
       <c r="R14">
-        <v>3380</v>
+        <v>11411</v>
       </c>
       <c r="S14">
-        <v>3733</v>
+        <v>11399</v>
       </c>
       <c r="T14">
-        <v>16767</v>
+        <v>29964</v>
       </c>
       <c r="U14">
-        <v>10637</v>
+        <v>22515</v>
       </c>
       <c r="V14">
-        <v>13012</v>
+        <v>20600</v>
       </c>
       <c r="W14">
-        <v>34014</v>
+        <v>47038</v>
       </c>
       <c r="X14">
-        <v>30457</v>
+        <v>38073</v>
       </c>
       <c r="Y14">
-        <v>36000</v>
+        <v>38261</v>
       </c>
       <c r="Z14">
-        <v>72307</v>
+        <v>104771</v>
       </c>
       <c r="AA14">
-        <v>67294</v>
+        <v>67936</v>
       </c>
       <c r="AB14">
-        <v>68565</v>
+        <v>67492</v>
       </c>
       <c r="AC14">
-        <v>100083</v>
+        <v>253624</v>
       </c>
       <c r="AD14">
-        <v>105055</v>
+        <v>187139</v>
       </c>
       <c r="AE14">
-        <v>109343</v>
+        <v>160231</v>
       </c>
       <c r="AF14">
-        <v>183303</v>
+        <v>346745</v>
       </c>
       <c r="AG14">
-        <v>164219</v>
+        <v>314336</v>
       </c>
       <c r="AH14">
-        <v>168175</v>
+        <v>197460</v>
       </c>
       <c r="AI14">
-        <v>253650</v>
+        <v>366325</v>
       </c>
       <c r="AJ14">
-        <v>254175</v>
+        <v>428074</v>
       </c>
       <c r="AK14">
-        <v>246699</v>
+        <v>339891</v>
       </c>
     </row>
   </sheetData>
@@ -1937,16 +1933,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB747E1-E119-4645-9E9D-5E66F2A3ABCF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF55D72E-8E48-4ED8-B045-B472C7E99BCB}">
   <dimension ref="A1:AK14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:AK14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B1">
         <v>9.765625</v>
       </c>
@@ -2056,1473 +2052,1473 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2910</v>
+        <v>1764</v>
       </c>
       <c r="C2">
-        <v>2580</v>
+        <v>1933</v>
       </c>
       <c r="D2">
-        <v>2891</v>
+        <v>2174</v>
       </c>
       <c r="E2">
-        <v>3152</v>
+        <v>2810</v>
       </c>
       <c r="F2">
-        <v>3967</v>
+        <v>2424</v>
       </c>
       <c r="G2">
-        <v>3917</v>
+        <v>2673</v>
       </c>
       <c r="H2">
-        <v>4567</v>
+        <v>3462</v>
       </c>
       <c r="I2">
-        <v>7058</v>
+        <v>2834</v>
       </c>
       <c r="J2">
-        <v>6219</v>
+        <v>3894</v>
       </c>
       <c r="K2">
-        <v>7151</v>
+        <v>4657</v>
       </c>
       <c r="L2">
-        <v>9331</v>
+        <v>5044</v>
       </c>
       <c r="M2">
-        <v>7377</v>
+        <v>5005</v>
       </c>
       <c r="N2">
-        <v>10930</v>
+        <v>9044</v>
       </c>
       <c r="O2">
-        <v>12434</v>
+        <v>6655</v>
       </c>
       <c r="P2">
-        <v>10378</v>
+        <v>7300</v>
       </c>
       <c r="Q2">
-        <v>17057</v>
+        <v>12425</v>
       </c>
       <c r="R2">
-        <v>18433</v>
+        <v>14253</v>
       </c>
       <c r="S2">
-        <v>15432</v>
+        <v>12401</v>
       </c>
       <c r="T2">
-        <v>27562</v>
+        <v>21384</v>
       </c>
       <c r="U2">
-        <v>31602</v>
+        <v>22526</v>
       </c>
       <c r="V2">
-        <v>28412</v>
+        <v>18873</v>
       </c>
       <c r="W2">
-        <v>49153</v>
+        <v>27085</v>
       </c>
       <c r="X2">
-        <v>55151</v>
+        <v>33046</v>
       </c>
       <c r="Y2">
-        <v>47909</v>
+        <v>27343</v>
       </c>
       <c r="Z2">
-        <v>118018</v>
+        <v>41041</v>
       </c>
       <c r="AA2">
-        <v>102320</v>
+        <v>55184</v>
       </c>
       <c r="AB2">
-        <v>88718</v>
+        <v>50971</v>
       </c>
       <c r="AC2">
-        <v>191956</v>
+        <v>77797</v>
       </c>
       <c r="AD2">
-        <v>194271</v>
+        <v>88927</v>
       </c>
       <c r="AE2">
-        <v>213084</v>
+        <v>85695</v>
       </c>
       <c r="AF2">
-        <v>471684</v>
+        <v>136844</v>
       </c>
       <c r="AG2">
-        <v>465738</v>
+        <v>168392</v>
       </c>
       <c r="AH2">
-        <v>295259</v>
+        <v>169676</v>
       </c>
       <c r="AI2">
-        <v>629447</v>
+        <v>293303</v>
       </c>
       <c r="AJ2">
-        <v>629580</v>
+        <v>271972</v>
       </c>
       <c r="AK2">
-        <v>572096</v>
+        <v>344141</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2.5</v>
       </c>
       <c r="B3">
-        <v>2399</v>
+        <v>1249</v>
       </c>
       <c r="C3">
-        <v>2151</v>
+        <v>1369</v>
       </c>
       <c r="D3">
-        <v>2009</v>
+        <v>1670</v>
       </c>
       <c r="E3">
-        <v>2731</v>
+        <v>2003</v>
       </c>
       <c r="F3">
-        <v>2956</v>
+        <v>1579</v>
       </c>
       <c r="G3">
-        <v>3104</v>
+        <v>2579</v>
       </c>
       <c r="H3">
-        <v>4071</v>
+        <v>2672</v>
       </c>
       <c r="I3">
-        <v>6104</v>
+        <v>2218</v>
       </c>
       <c r="J3">
-        <v>5351</v>
+        <v>2913</v>
       </c>
       <c r="K3">
-        <v>6349</v>
+        <v>4025</v>
       </c>
       <c r="L3">
-        <v>8208</v>
+        <v>4079</v>
       </c>
       <c r="M3">
-        <v>6698</v>
+        <v>4552</v>
       </c>
       <c r="N3">
-        <v>9922</v>
+        <v>7894</v>
       </c>
       <c r="O3">
-        <v>11485</v>
+        <v>5425</v>
       </c>
       <c r="P3">
-        <v>9244</v>
+        <v>6311</v>
       </c>
       <c r="Q3">
-        <v>17000</v>
+        <v>9547</v>
       </c>
       <c r="R3">
-        <v>17558</v>
+        <v>11923</v>
       </c>
       <c r="S3">
-        <v>13639</v>
+        <v>10201</v>
       </c>
       <c r="T3">
-        <v>27480</v>
+        <v>18249</v>
       </c>
       <c r="U3">
-        <v>30612</v>
+        <v>18621</v>
       </c>
       <c r="V3">
-        <v>27676</v>
+        <v>16492</v>
       </c>
       <c r="W3">
-        <v>48714</v>
+        <v>22416</v>
       </c>
       <c r="X3">
-        <v>54853</v>
+        <v>28229</v>
       </c>
       <c r="Y3">
-        <v>46806</v>
+        <v>24606</v>
       </c>
       <c r="Z3">
-        <v>124150</v>
+        <v>34219</v>
       </c>
       <c r="AA3">
-        <v>102416</v>
+        <v>44563</v>
       </c>
       <c r="AB3">
-        <v>85657</v>
+        <v>45249</v>
       </c>
       <c r="AC3">
-        <v>194499</v>
+        <v>72566</v>
       </c>
       <c r="AD3">
-        <v>190323</v>
+        <v>73474</v>
       </c>
       <c r="AE3">
-        <v>213104</v>
+        <v>75605</v>
       </c>
       <c r="AF3">
-        <v>471582</v>
+        <v>117455</v>
       </c>
       <c r="AG3">
-        <v>468787</v>
+        <v>150676</v>
       </c>
       <c r="AH3">
-        <v>297757</v>
+        <v>145816</v>
       </c>
       <c r="AI3">
-        <v>611758</v>
+        <v>266004</v>
       </c>
       <c r="AJ3">
-        <v>613945</v>
+        <v>260062</v>
       </c>
       <c r="AK3">
-        <v>547501</v>
+        <v>300346</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5</v>
       </c>
       <c r="B4">
-        <v>2177</v>
+        <v>1192</v>
       </c>
       <c r="C4">
-        <v>1818</v>
+        <v>1387</v>
       </c>
       <c r="D4">
-        <v>1942</v>
+        <v>1853</v>
       </c>
       <c r="E4">
-        <v>2400</v>
+        <v>1902</v>
       </c>
       <c r="F4">
-        <v>2734</v>
+        <v>1451</v>
       </c>
       <c r="G4">
-        <v>2930</v>
+        <v>2417</v>
       </c>
       <c r="H4">
-        <v>4028</v>
+        <v>2436</v>
       </c>
       <c r="I4">
-        <v>6328</v>
+        <v>2079</v>
       </c>
       <c r="J4">
-        <v>5784</v>
+        <v>3127</v>
       </c>
       <c r="K4">
-        <v>6421</v>
+        <v>3592</v>
       </c>
       <c r="L4">
-        <v>8131</v>
+        <v>3582</v>
       </c>
       <c r="M4">
-        <v>6474</v>
+        <v>4221</v>
       </c>
       <c r="N4">
-        <v>10370</v>
+        <v>7327</v>
       </c>
       <c r="O4">
-        <v>11781</v>
+        <v>4873</v>
       </c>
       <c r="P4">
-        <v>8751</v>
+        <v>5934</v>
       </c>
       <c r="Q4">
-        <v>16009</v>
+        <v>9131</v>
       </c>
       <c r="R4">
-        <v>17213</v>
+        <v>11088</v>
       </c>
       <c r="S4">
-        <v>14079</v>
+        <v>9662</v>
       </c>
       <c r="T4">
-        <v>28000</v>
+        <v>16185</v>
       </c>
       <c r="U4">
-        <v>31141</v>
+        <v>17631</v>
       </c>
       <c r="V4">
-        <v>27215</v>
+        <v>14772</v>
       </c>
       <c r="W4">
-        <v>48515</v>
+        <v>20757</v>
       </c>
       <c r="X4">
-        <v>54069</v>
+        <v>25565</v>
       </c>
       <c r="Y4">
-        <v>47080</v>
+        <v>23116</v>
       </c>
       <c r="Z4">
-        <v>118827</v>
+        <v>31694</v>
       </c>
       <c r="AA4">
-        <v>100642</v>
+        <v>41890</v>
       </c>
       <c r="AB4">
-        <v>87237</v>
+        <v>41331</v>
       </c>
       <c r="AC4">
-        <v>192088</v>
+        <v>69743</v>
       </c>
       <c r="AD4">
-        <v>202318</v>
+        <v>67524</v>
       </c>
       <c r="AE4">
-        <v>211405</v>
+        <v>68575</v>
       </c>
       <c r="AF4">
-        <v>464060</v>
+        <v>111702</v>
       </c>
       <c r="AG4">
-        <v>454000</v>
+        <v>141691</v>
       </c>
       <c r="AH4">
-        <v>287730</v>
+        <v>131864</v>
       </c>
       <c r="AI4">
-        <v>615160</v>
+        <v>269887</v>
       </c>
       <c r="AJ4">
-        <v>582753</v>
+        <v>237359</v>
       </c>
       <c r="AK4">
-        <v>530507</v>
+        <v>289026</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>7.5</v>
       </c>
       <c r="B5">
-        <v>1776</v>
+        <v>1100</v>
       </c>
       <c r="C5">
-        <v>2031</v>
+        <v>1270</v>
       </c>
       <c r="D5">
-        <v>1841</v>
+        <v>1403</v>
       </c>
       <c r="E5">
-        <v>2394</v>
+        <v>1628</v>
       </c>
       <c r="F5">
-        <v>2639</v>
+        <v>1293</v>
       </c>
       <c r="G5">
-        <v>2716</v>
+        <v>2256</v>
       </c>
       <c r="H5">
-        <v>3933</v>
+        <v>2228</v>
       </c>
       <c r="I5">
-        <v>6171</v>
+        <v>1871</v>
       </c>
       <c r="J5">
-        <v>5134</v>
+        <v>2899</v>
       </c>
       <c r="K5">
-        <v>6443</v>
+        <v>3088</v>
       </c>
       <c r="L5">
-        <v>8515</v>
+        <v>3403</v>
       </c>
       <c r="M5">
-        <v>6457</v>
+        <v>3663</v>
       </c>
       <c r="N5">
-        <v>9735</v>
+        <v>7515</v>
       </c>
       <c r="O5">
-        <v>11383</v>
+        <v>5051</v>
       </c>
       <c r="P5">
-        <v>9069</v>
+        <v>5745</v>
       </c>
       <c r="Q5">
-        <v>16909</v>
+        <v>8911</v>
       </c>
       <c r="R5">
-        <v>17608</v>
+        <v>10214</v>
       </c>
       <c r="S5">
-        <v>13527</v>
+        <v>9303</v>
       </c>
       <c r="T5">
-        <v>28243</v>
+        <v>15036</v>
       </c>
       <c r="U5">
-        <v>30725</v>
+        <v>17603</v>
       </c>
       <c r="V5">
-        <v>26923</v>
+        <v>14415</v>
       </c>
       <c r="W5">
-        <v>48753</v>
+        <v>19824</v>
       </c>
       <c r="X5">
-        <v>53582</v>
+        <v>23652</v>
       </c>
       <c r="Y5">
-        <v>46674</v>
+        <v>22763</v>
       </c>
       <c r="Z5">
-        <v>121319</v>
+        <v>29155</v>
       </c>
       <c r="AA5">
-        <v>100974</v>
+        <v>41216</v>
       </c>
       <c r="AB5">
-        <v>85171</v>
+        <v>38246</v>
       </c>
       <c r="AC5">
-        <v>188183</v>
+        <v>68008</v>
       </c>
       <c r="AD5">
-        <v>198944</v>
+        <v>64707</v>
       </c>
       <c r="AE5">
-        <v>205728</v>
+        <v>64723</v>
       </c>
       <c r="AF5">
-        <v>455373</v>
+        <v>112938</v>
       </c>
       <c r="AG5">
-        <v>449919</v>
+        <v>144702</v>
       </c>
       <c r="AH5">
-        <v>289008</v>
+        <v>125339</v>
       </c>
       <c r="AI5">
-        <v>604651</v>
+        <v>252615</v>
       </c>
       <c r="AJ5">
-        <v>580120</v>
+        <v>228141</v>
       </c>
       <c r="AK5">
-        <v>525333</v>
+        <v>257835</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>10</v>
       </c>
       <c r="B6">
-        <v>1640</v>
+        <v>980</v>
       </c>
       <c r="C6">
-        <v>1804</v>
+        <v>1203</v>
       </c>
       <c r="D6">
-        <v>1709</v>
+        <v>1173</v>
       </c>
       <c r="E6">
-        <v>2421</v>
+        <v>1507</v>
       </c>
       <c r="F6">
-        <v>2842</v>
+        <v>1283</v>
       </c>
       <c r="G6">
-        <v>2810</v>
+        <v>1867</v>
       </c>
       <c r="H6">
-        <v>3499</v>
+        <v>2347</v>
       </c>
       <c r="I6">
-        <v>5889</v>
+        <v>1835</v>
       </c>
       <c r="J6">
-        <v>5376</v>
+        <v>2337</v>
       </c>
       <c r="K6">
-        <v>5731</v>
+        <v>3229</v>
       </c>
       <c r="L6">
-        <v>8305</v>
+        <v>3359</v>
       </c>
       <c r="M6">
-        <v>6367</v>
+        <v>3700</v>
       </c>
       <c r="N6">
-        <v>9743</v>
+        <v>8041</v>
       </c>
       <c r="O6">
-        <v>11363</v>
+        <v>4646</v>
       </c>
       <c r="P6">
-        <v>8681</v>
+        <v>5534</v>
       </c>
       <c r="Q6">
-        <v>16665</v>
+        <v>8736</v>
       </c>
       <c r="R6">
-        <v>16831</v>
+        <v>10007</v>
       </c>
       <c r="S6">
-        <v>13195</v>
+        <v>9075</v>
       </c>
       <c r="T6">
-        <v>27098</v>
+        <v>14454</v>
       </c>
       <c r="U6">
-        <v>29469</v>
+        <v>16933</v>
       </c>
       <c r="V6">
-        <v>26753</v>
+        <v>13871</v>
       </c>
       <c r="W6">
-        <v>48520</v>
+        <v>19710</v>
       </c>
       <c r="X6">
-        <v>52761</v>
+        <v>22999</v>
       </c>
       <c r="Y6">
-        <v>45601</v>
+        <v>22264</v>
       </c>
       <c r="Z6">
-        <v>115245</v>
+        <v>28054</v>
       </c>
       <c r="AA6">
-        <v>99654</v>
+        <v>39616</v>
       </c>
       <c r="AB6">
-        <v>84571</v>
+        <v>36202</v>
       </c>
       <c r="AC6">
-        <v>189585</v>
+        <v>67990</v>
       </c>
       <c r="AD6">
-        <v>185138</v>
+        <v>64134</v>
       </c>
       <c r="AE6">
-        <v>204743</v>
+        <v>61695</v>
       </c>
       <c r="AF6">
-        <v>445946</v>
+        <v>104785</v>
       </c>
       <c r="AG6">
-        <v>437923</v>
+        <v>136627</v>
       </c>
       <c r="AH6">
-        <v>287404</v>
+        <v>125818</v>
       </c>
       <c r="AI6">
-        <v>556696</v>
+        <v>257952</v>
       </c>
       <c r="AJ6">
-        <v>558853</v>
+        <v>222670</v>
       </c>
       <c r="AK6">
-        <v>491639</v>
+        <v>267077</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>12.5</v>
       </c>
       <c r="B7">
-        <v>1391</v>
+        <v>890</v>
       </c>
       <c r="C7">
-        <v>1721</v>
+        <v>1137</v>
       </c>
       <c r="D7">
-        <v>1765</v>
+        <v>1151</v>
       </c>
       <c r="E7">
-        <v>2270</v>
+        <v>1456</v>
       </c>
       <c r="F7">
-        <v>2423</v>
+        <v>1192</v>
       </c>
       <c r="G7">
-        <v>2571</v>
+        <v>1707</v>
       </c>
       <c r="H7">
-        <v>3706</v>
+        <v>2089</v>
       </c>
       <c r="I7">
-        <v>5938</v>
+        <v>1448</v>
       </c>
       <c r="J7">
-        <v>4902</v>
+        <v>2490</v>
       </c>
       <c r="K7">
-        <v>5651</v>
+        <v>3039</v>
       </c>
       <c r="L7">
-        <v>8009</v>
+        <v>2765</v>
       </c>
       <c r="M7">
-        <v>5964</v>
+        <v>3424</v>
       </c>
       <c r="N7">
-        <v>9115</v>
+        <v>8317</v>
       </c>
       <c r="O7">
-        <v>11269</v>
+        <v>4380</v>
       </c>
       <c r="P7">
-        <v>8328</v>
+        <v>5059</v>
       </c>
       <c r="Q7">
-        <v>15839</v>
+        <v>8833</v>
       </c>
       <c r="R7">
-        <v>16746</v>
+        <v>9554</v>
       </c>
       <c r="S7">
-        <v>12608</v>
+        <v>8123</v>
       </c>
       <c r="T7">
-        <v>26423</v>
+        <v>13813</v>
       </c>
       <c r="U7">
-        <v>29855</v>
+        <v>16990</v>
       </c>
       <c r="V7">
-        <v>24637</v>
+        <v>13335</v>
       </c>
       <c r="W7">
-        <v>45750</v>
+        <v>18473</v>
       </c>
       <c r="X7">
-        <v>51405</v>
+        <v>21719</v>
       </c>
       <c r="Y7">
-        <v>43997</v>
+        <v>22544</v>
       </c>
       <c r="Z7">
-        <v>110422</v>
+        <v>27329</v>
       </c>
       <c r="AA7">
-        <v>97402</v>
+        <v>38743</v>
       </c>
       <c r="AB7">
-        <v>81206</v>
+        <v>34486</v>
       </c>
       <c r="AC7">
-        <v>181555</v>
+        <v>67769</v>
       </c>
       <c r="AD7">
-        <v>190534</v>
+        <v>60884</v>
       </c>
       <c r="AE7">
-        <v>196229</v>
+        <v>57516</v>
       </c>
       <c r="AF7">
-        <v>431249</v>
+        <v>99355</v>
       </c>
       <c r="AG7">
-        <v>416020</v>
+        <v>134654</v>
       </c>
       <c r="AH7">
-        <v>272503</v>
+        <v>113338</v>
       </c>
       <c r="AI7">
-        <v>547519</v>
+        <v>247191</v>
       </c>
       <c r="AJ7">
-        <v>531598</v>
+        <v>223372</v>
       </c>
       <c r="AK7">
-        <v>455796</v>
+        <v>232837</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>15</v>
       </c>
       <c r="B8">
-        <v>1390</v>
+        <v>903</v>
       </c>
       <c r="C8">
-        <v>1617</v>
+        <v>921</v>
       </c>
       <c r="D8">
-        <v>1617</v>
+        <v>1179</v>
       </c>
       <c r="E8">
-        <v>2143</v>
+        <v>1442</v>
       </c>
       <c r="F8">
-        <v>2446</v>
+        <v>1149</v>
       </c>
       <c r="G8">
-        <v>2543</v>
+        <v>1930</v>
       </c>
       <c r="H8">
-        <v>3543</v>
+        <v>1707</v>
       </c>
       <c r="I8">
-        <v>5424</v>
+        <v>1531</v>
       </c>
       <c r="J8">
-        <v>4838</v>
+        <v>2240</v>
       </c>
       <c r="K8">
-        <v>5951</v>
+        <v>3035</v>
       </c>
       <c r="L8">
-        <v>7542</v>
+        <v>2802</v>
       </c>
       <c r="M8">
-        <v>5848</v>
+        <v>3391</v>
       </c>
       <c r="N8">
-        <v>9256</v>
+        <v>8408</v>
       </c>
       <c r="O8">
-        <v>10685</v>
+        <v>4038</v>
       </c>
       <c r="P8">
-        <v>7634</v>
+        <v>5099</v>
       </c>
       <c r="Q8">
-        <v>16018</v>
+        <v>8373</v>
       </c>
       <c r="R8">
-        <v>16858</v>
+        <v>9182</v>
       </c>
       <c r="S8">
-        <v>12852</v>
+        <v>8530</v>
       </c>
       <c r="T8">
-        <v>25687</v>
+        <v>13110</v>
       </c>
       <c r="U8">
-        <v>29348</v>
+        <v>17288</v>
       </c>
       <c r="V8">
-        <v>24947</v>
+        <v>13555</v>
       </c>
       <c r="W8">
-        <v>45727</v>
+        <v>18661</v>
       </c>
       <c r="X8">
-        <v>51488</v>
+        <v>20481</v>
       </c>
       <c r="Y8">
-        <v>42243</v>
+        <v>22057</v>
       </c>
       <c r="Z8">
-        <v>118314</v>
+        <v>26485</v>
       </c>
       <c r="AA8">
-        <v>95745</v>
+        <v>37280</v>
       </c>
       <c r="AB8">
-        <v>80526</v>
+        <v>34158</v>
       </c>
       <c r="AC8">
-        <v>180174</v>
+        <v>66886</v>
       </c>
       <c r="AD8">
-        <v>184006</v>
+        <v>59718</v>
       </c>
       <c r="AE8">
-        <v>188665</v>
+        <v>56043</v>
       </c>
       <c r="AF8">
-        <v>419546</v>
+        <v>96394</v>
       </c>
       <c r="AG8">
-        <v>410947</v>
+        <v>121323</v>
       </c>
       <c r="AH8">
-        <v>275900</v>
+        <v>112393</v>
       </c>
       <c r="AI8">
-        <v>533686</v>
+        <v>234826</v>
       </c>
       <c r="AJ8">
-        <v>529091</v>
+        <v>215832</v>
       </c>
       <c r="AK8">
-        <v>445259</v>
+        <v>238578</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>17.5</v>
       </c>
       <c r="B9">
-        <v>1196</v>
+        <v>867</v>
       </c>
       <c r="C9">
-        <v>1536</v>
+        <v>1021</v>
       </c>
       <c r="D9">
-        <v>1605</v>
+        <v>1087</v>
       </c>
       <c r="E9">
-        <v>2233</v>
+        <v>1263</v>
       </c>
       <c r="F9">
-        <v>2588</v>
+        <v>1126</v>
       </c>
       <c r="G9">
-        <v>2559</v>
+        <v>1748</v>
       </c>
       <c r="H9">
-        <v>3314</v>
+        <v>1776</v>
       </c>
       <c r="I9">
-        <v>5681</v>
+        <v>1474</v>
       </c>
       <c r="J9">
-        <v>4665</v>
+        <v>2294</v>
       </c>
       <c r="K9">
-        <v>5618</v>
+        <v>3043</v>
       </c>
       <c r="L9">
-        <v>7123</v>
+        <v>2911</v>
       </c>
       <c r="M9">
-        <v>5506</v>
+        <v>3379</v>
       </c>
       <c r="N9">
-        <v>9033</v>
+        <v>8428</v>
       </c>
       <c r="O9">
-        <v>10649</v>
+        <v>4104</v>
       </c>
       <c r="P9">
-        <v>7976</v>
+        <v>5152</v>
       </c>
       <c r="Q9">
-        <v>15358</v>
+        <v>8471</v>
       </c>
       <c r="R9">
-        <v>16391</v>
+        <v>9114</v>
       </c>
       <c r="S9">
-        <v>12200</v>
+        <v>8103</v>
       </c>
       <c r="T9">
-        <v>25224</v>
+        <v>12313</v>
       </c>
       <c r="U9">
-        <v>28914</v>
+        <v>17354</v>
       </c>
       <c r="V9">
-        <v>24519</v>
+        <v>13220</v>
       </c>
       <c r="W9">
-        <v>45104</v>
+        <v>18490</v>
       </c>
       <c r="X9">
-        <v>51081</v>
+        <v>21043</v>
       </c>
       <c r="Y9">
-        <v>42148</v>
+        <v>21973</v>
       </c>
       <c r="Z9">
-        <v>109505</v>
+        <v>25416</v>
       </c>
       <c r="AA9">
-        <v>96428</v>
+        <v>36127</v>
       </c>
       <c r="AB9">
-        <v>79094</v>
+        <v>33810</v>
       </c>
       <c r="AC9">
-        <v>176697</v>
+        <v>67325</v>
       </c>
       <c r="AD9">
-        <v>182500</v>
+        <v>58838</v>
       </c>
       <c r="AE9">
-        <v>188289</v>
+        <v>53823</v>
       </c>
       <c r="AF9">
-        <v>406158</v>
+        <v>94938</v>
       </c>
       <c r="AG9">
-        <v>403045</v>
+        <v>119257</v>
       </c>
       <c r="AH9">
-        <v>261242</v>
+        <v>110928</v>
       </c>
       <c r="AI9">
-        <v>512719</v>
+        <v>240903</v>
       </c>
       <c r="AJ9">
-        <v>507369</v>
+        <v>205037</v>
       </c>
       <c r="AK9">
-        <v>432335</v>
+        <v>221532</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>20</v>
       </c>
       <c r="B10">
-        <v>1128</v>
+        <v>724</v>
       </c>
       <c r="C10">
-        <v>1589</v>
+        <v>946</v>
       </c>
       <c r="D10">
-        <v>1435</v>
+        <v>985</v>
       </c>
       <c r="E10">
-        <v>2134</v>
+        <v>1311</v>
       </c>
       <c r="F10">
-        <v>2407</v>
+        <v>1008</v>
       </c>
       <c r="G10">
-        <v>2280</v>
+        <v>1678</v>
       </c>
       <c r="H10">
-        <v>3184</v>
+        <v>1879</v>
       </c>
       <c r="I10">
-        <v>5595</v>
+        <v>1279</v>
       </c>
       <c r="J10">
-        <v>4338</v>
+        <v>2296</v>
       </c>
       <c r="K10">
-        <v>5270</v>
+        <v>3104</v>
       </c>
       <c r="L10">
-        <v>7502</v>
+        <v>2641</v>
       </c>
       <c r="M10">
-        <v>5569</v>
+        <v>3252</v>
       </c>
       <c r="N10">
-        <v>8814</v>
+        <v>8050</v>
       </c>
       <c r="O10">
-        <v>10329</v>
+        <v>3578</v>
       </c>
       <c r="P10">
-        <v>7798</v>
+        <v>4859</v>
       </c>
       <c r="Q10">
-        <v>15527</v>
+        <v>8243</v>
       </c>
       <c r="R10">
-        <v>16021</v>
+        <v>8855</v>
       </c>
       <c r="S10">
-        <v>11942</v>
+        <v>8077</v>
       </c>
       <c r="T10">
-        <v>24942</v>
+        <v>12093</v>
       </c>
       <c r="U10">
-        <v>28134</v>
+        <v>17530</v>
       </c>
       <c r="V10">
-        <v>24000</v>
+        <v>12484</v>
       </c>
       <c r="W10">
-        <v>44272</v>
+        <v>18075</v>
       </c>
       <c r="X10">
-        <v>50081</v>
+        <v>20117</v>
       </c>
       <c r="Y10">
-        <v>40796</v>
+        <v>22149</v>
       </c>
       <c r="Z10">
-        <v>110237</v>
+        <v>25362</v>
       </c>
       <c r="AA10">
-        <v>91158</v>
+        <v>36200</v>
       </c>
       <c r="AB10">
-        <v>76683</v>
+        <v>32065</v>
       </c>
       <c r="AC10">
-        <v>173505</v>
+        <v>67004</v>
       </c>
       <c r="AD10">
-        <v>179749</v>
+        <v>57838</v>
       </c>
       <c r="AE10">
-        <v>177450</v>
+        <v>51456</v>
       </c>
       <c r="AF10">
-        <v>397964</v>
+        <v>92584</v>
       </c>
       <c r="AG10">
-        <v>385943</v>
+        <v>118928</v>
       </c>
       <c r="AH10">
-        <v>252810</v>
+        <v>112667</v>
       </c>
       <c r="AI10">
-        <v>491337</v>
+        <v>235833</v>
       </c>
       <c r="AJ10">
-        <v>486265</v>
+        <v>207091</v>
       </c>
       <c r="AK10">
-        <v>427186</v>
+        <v>227575</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>22.5</v>
       </c>
       <c r="B11">
-        <v>919</v>
+        <v>731</v>
       </c>
       <c r="C11">
-        <v>1525</v>
+        <v>812</v>
       </c>
       <c r="D11">
-        <v>1379</v>
+        <v>992</v>
       </c>
       <c r="E11">
-        <v>2060</v>
+        <v>1333</v>
       </c>
       <c r="F11">
-        <v>2232</v>
+        <v>912</v>
       </c>
       <c r="G11">
-        <v>2215</v>
+        <v>1601</v>
       </c>
       <c r="H11">
-        <v>3186</v>
+        <v>1558</v>
       </c>
       <c r="I11">
-        <v>5756</v>
+        <v>1258</v>
       </c>
       <c r="J11">
-        <v>4382</v>
+        <v>1997</v>
       </c>
       <c r="K11">
-        <v>5373</v>
+        <v>2777</v>
       </c>
       <c r="L11">
-        <v>7325</v>
+        <v>2551</v>
       </c>
       <c r="M11">
-        <v>5440</v>
+        <v>3279</v>
       </c>
       <c r="N11">
-        <v>8707</v>
+        <v>8557</v>
       </c>
       <c r="O11">
-        <v>10108</v>
+        <v>4086</v>
       </c>
       <c r="P11">
-        <v>7484</v>
+        <v>4646</v>
       </c>
       <c r="Q11">
-        <v>14870</v>
+        <v>8453</v>
       </c>
       <c r="R11">
-        <v>15601</v>
+        <v>8567</v>
       </c>
       <c r="S11">
-        <v>11630</v>
+        <v>7782</v>
       </c>
       <c r="T11">
-        <v>23726</v>
+        <v>11706</v>
       </c>
       <c r="U11">
-        <v>26722</v>
+        <v>17032</v>
       </c>
       <c r="V11">
-        <v>23208</v>
+        <v>12475</v>
       </c>
       <c r="W11">
-        <v>42326</v>
+        <v>17903</v>
       </c>
       <c r="X11">
-        <v>49366</v>
+        <v>20358</v>
       </c>
       <c r="Y11">
-        <v>40648</v>
+        <v>23205</v>
       </c>
       <c r="Z11">
-        <v>105759</v>
+        <v>24952</v>
       </c>
       <c r="AA11">
-        <v>91031</v>
+        <v>36455</v>
       </c>
       <c r="AB11">
-        <v>78771</v>
+        <v>31334</v>
       </c>
       <c r="AC11">
-        <v>174578</v>
+        <v>65779</v>
       </c>
       <c r="AD11">
-        <v>177712</v>
+        <v>57795</v>
       </c>
       <c r="AE11">
-        <v>178097</v>
+        <v>50826</v>
       </c>
       <c r="AF11">
-        <v>380171</v>
+        <v>90260</v>
       </c>
       <c r="AG11">
-        <v>376623</v>
+        <v>115944</v>
       </c>
       <c r="AH11">
-        <v>244092</v>
+        <v>106273</v>
       </c>
       <c r="AI11">
-        <v>483626</v>
+        <v>231974</v>
       </c>
       <c r="AJ11">
-        <v>463352</v>
+        <v>196461</v>
       </c>
       <c r="AK11">
-        <v>408405</v>
+        <v>212643</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>25</v>
       </c>
       <c r="B12">
-        <v>893</v>
+        <v>796</v>
       </c>
       <c r="C12">
-        <v>1361</v>
+        <v>824</v>
       </c>
       <c r="D12">
-        <v>1410</v>
+        <v>1100</v>
       </c>
       <c r="E12">
-        <v>1755</v>
+        <v>1179</v>
       </c>
       <c r="F12">
-        <v>2105</v>
+        <v>942</v>
       </c>
       <c r="G12">
-        <v>2317</v>
+        <v>1547</v>
       </c>
       <c r="H12">
-        <v>3019</v>
+        <v>1766</v>
       </c>
       <c r="I12">
-        <v>5066</v>
+        <v>1177</v>
       </c>
       <c r="J12">
-        <v>4403</v>
+        <v>1997</v>
       </c>
       <c r="K12">
-        <v>5413</v>
+        <v>2683</v>
       </c>
       <c r="L12">
-        <v>7000</v>
+        <v>2370</v>
       </c>
       <c r="M12">
-        <v>5200</v>
+        <v>3217</v>
       </c>
       <c r="N12">
-        <v>8752</v>
+        <v>8359</v>
       </c>
       <c r="O12">
-        <v>10010</v>
+        <v>3917</v>
       </c>
       <c r="P12">
-        <v>7051</v>
+        <v>4941</v>
       </c>
       <c r="Q12">
-        <v>14427</v>
+        <v>8407</v>
       </c>
       <c r="R12">
-        <v>15100</v>
+        <v>8792</v>
       </c>
       <c r="S12">
-        <v>11861</v>
+        <v>7520</v>
       </c>
       <c r="T12">
-        <v>23320</v>
+        <v>11598</v>
       </c>
       <c r="U12">
-        <v>26549</v>
+        <v>17049</v>
       </c>
       <c r="V12">
-        <v>22954</v>
+        <v>11903</v>
       </c>
       <c r="W12">
-        <v>41463</v>
+        <v>18602</v>
       </c>
       <c r="X12">
-        <v>47055</v>
+        <v>19622</v>
       </c>
       <c r="Y12">
-        <v>40030</v>
+        <v>23464</v>
       </c>
       <c r="Z12">
-        <v>104013</v>
+        <v>24732</v>
       </c>
       <c r="AA12">
-        <v>88420</v>
+        <v>36150</v>
       </c>
       <c r="AB12">
-        <v>77482</v>
+        <v>30341</v>
       </c>
       <c r="AC12">
-        <v>164698</v>
+        <v>64946</v>
       </c>
       <c r="AD12">
-        <v>166757</v>
+        <v>58216</v>
       </c>
       <c r="AE12">
-        <v>171595</v>
+        <v>49615</v>
       </c>
       <c r="AF12">
-        <v>378284</v>
+        <v>89519</v>
       </c>
       <c r="AG12">
-        <v>371336</v>
+        <v>115729</v>
       </c>
       <c r="AH12">
-        <v>242277</v>
+        <v>104028</v>
       </c>
       <c r="AI12">
-        <v>464294</v>
+        <v>224275</v>
       </c>
       <c r="AJ12">
-        <v>450911</v>
+        <v>208113</v>
       </c>
       <c r="AK12">
-        <v>392406</v>
+        <v>213239</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>27.5</v>
       </c>
       <c r="B13">
-        <v>982</v>
+        <v>798</v>
       </c>
       <c r="C13">
-        <v>1339</v>
+        <v>821</v>
       </c>
       <c r="D13">
-        <v>1368</v>
+        <v>1031</v>
       </c>
       <c r="E13">
-        <v>1836</v>
+        <v>1303</v>
       </c>
       <c r="F13">
-        <v>2077</v>
+        <v>999</v>
       </c>
       <c r="G13">
-        <v>2189</v>
+        <v>1502</v>
       </c>
       <c r="H13">
-        <v>3018</v>
+        <v>1706</v>
       </c>
       <c r="I13">
-        <v>4869</v>
+        <v>1363</v>
       </c>
       <c r="J13">
-        <v>4391</v>
+        <v>1994</v>
       </c>
       <c r="K13">
-        <v>5309</v>
+        <v>2866</v>
       </c>
       <c r="L13">
-        <v>6924</v>
+        <v>2482</v>
       </c>
       <c r="M13">
-        <v>5057</v>
+        <v>2904</v>
       </c>
       <c r="N13">
-        <v>8180</v>
+        <v>7725</v>
       </c>
       <c r="O13">
-        <v>9606</v>
+        <v>3736</v>
       </c>
       <c r="P13">
-        <v>7214</v>
+        <v>4367</v>
       </c>
       <c r="Q13">
-        <v>13789</v>
+        <v>8489</v>
       </c>
       <c r="R13">
-        <v>14963</v>
+        <v>8511</v>
       </c>
       <c r="S13">
-        <v>11143</v>
+        <v>7570</v>
       </c>
       <c r="T13">
-        <v>23283</v>
+        <v>11129</v>
       </c>
       <c r="U13">
-        <v>27174</v>
+        <v>17211</v>
       </c>
       <c r="V13">
-        <v>22376</v>
+        <v>12169</v>
       </c>
       <c r="W13">
-        <v>41022</v>
+        <v>17717</v>
       </c>
       <c r="X13">
-        <v>46298</v>
+        <v>19643</v>
       </c>
       <c r="Y13">
-        <v>38924</v>
+        <v>21827</v>
       </c>
       <c r="Z13">
-        <v>101944</v>
+        <v>23606</v>
       </c>
       <c r="AA13">
-        <v>86769</v>
+        <v>34966</v>
       </c>
       <c r="AB13">
-        <v>74938</v>
+        <v>29488</v>
       </c>
       <c r="AC13">
-        <v>168565</v>
+        <v>64689</v>
       </c>
       <c r="AD13">
-        <v>164567</v>
+        <v>56953</v>
       </c>
       <c r="AE13">
-        <v>168382</v>
+        <v>48387</v>
       </c>
       <c r="AF13">
-        <v>360170</v>
+        <v>86984</v>
       </c>
       <c r="AG13">
-        <v>360841</v>
+        <v>113632</v>
       </c>
       <c r="AH13">
-        <v>243112</v>
+        <v>102494</v>
       </c>
       <c r="AI13">
-        <v>449861</v>
+        <v>222430</v>
       </c>
       <c r="AJ13">
-        <v>444680</v>
+        <v>188273</v>
       </c>
       <c r="AK13">
-        <v>379718</v>
+        <v>204843</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>30</v>
       </c>
       <c r="B14">
-        <v>849</v>
+        <v>726</v>
       </c>
       <c r="C14">
-        <v>1375</v>
+        <v>749</v>
       </c>
       <c r="D14">
-        <v>1309</v>
+        <v>1099</v>
       </c>
       <c r="E14">
-        <v>1700</v>
+        <v>1161</v>
       </c>
       <c r="F14">
-        <v>2007</v>
+        <v>888</v>
       </c>
       <c r="G14">
-        <v>1837</v>
+        <v>1537</v>
       </c>
       <c r="H14">
-        <v>3031</v>
+        <v>1561</v>
       </c>
       <c r="I14">
-        <v>4674</v>
+        <v>1376</v>
       </c>
       <c r="J14">
-        <v>4181</v>
+        <v>2063</v>
       </c>
       <c r="K14">
-        <v>5046</v>
+        <v>2477</v>
       </c>
       <c r="L14">
-        <v>7245</v>
+        <v>2383</v>
       </c>
       <c r="M14">
-        <v>4880</v>
+        <v>2784</v>
       </c>
       <c r="N14">
-        <v>7813</v>
+        <v>7585</v>
       </c>
       <c r="O14">
-        <v>9533</v>
+        <v>3659</v>
       </c>
       <c r="P14">
-        <v>6695</v>
+        <v>4387</v>
       </c>
       <c r="Q14">
-        <v>13437</v>
+        <v>8080</v>
       </c>
       <c r="R14">
-        <v>14573</v>
+        <v>8386</v>
       </c>
       <c r="S14">
-        <v>10863</v>
+        <v>7370</v>
       </c>
       <c r="T14">
-        <v>22400</v>
+        <v>10766</v>
       </c>
       <c r="U14">
-        <v>25778</v>
+        <v>16748</v>
       </c>
       <c r="V14">
-        <v>21704</v>
+        <v>11378</v>
       </c>
       <c r="W14">
-        <v>39493</v>
+        <v>18021</v>
       </c>
       <c r="X14">
-        <v>46251</v>
+        <v>19096</v>
       </c>
       <c r="Y14">
-        <v>38342</v>
+        <v>21968</v>
       </c>
       <c r="Z14">
-        <v>99632</v>
+        <v>23491</v>
       </c>
       <c r="AA14">
-        <v>84661</v>
+        <v>34838</v>
       </c>
       <c r="AB14">
-        <v>72565</v>
+        <v>28105</v>
       </c>
       <c r="AC14">
-        <v>153362</v>
+        <v>63409</v>
       </c>
       <c r="AD14">
-        <v>162254</v>
+        <v>55747</v>
       </c>
       <c r="AE14">
-        <v>165452</v>
+        <v>46374</v>
       </c>
       <c r="AF14">
-        <v>355309</v>
+        <v>86326</v>
       </c>
       <c r="AG14">
-        <v>342686</v>
+        <v>107525</v>
       </c>
       <c r="AH14">
-        <v>230064</v>
+        <v>99688</v>
       </c>
       <c r="AI14">
-        <v>430933</v>
+        <v>222766</v>
       </c>
       <c r="AJ14">
-        <v>426704</v>
+        <v>190943</v>
       </c>
       <c r="AK14">
-        <v>371242</v>
+        <v>198871</v>
       </c>
     </row>
   </sheetData>
@@ -3531,16 +3527,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B136189D-1154-46C6-9BCA-FB210D19ACC9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK14"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection sqref="A1:AK14"/>
+    <sheetView topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S54" sqref="S54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B1">
         <v>9.765625</v>
       </c>
@@ -3650,1473 +3646,1473 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1586</v>
+        <v>1869</v>
       </c>
       <c r="C2">
-        <v>1603</v>
+        <v>1922</v>
       </c>
       <c r="D2">
-        <v>1698</v>
+        <v>1783</v>
       </c>
       <c r="E2">
-        <v>1966</v>
+        <v>2242</v>
       </c>
       <c r="F2">
-        <v>2647</v>
+        <v>2081</v>
       </c>
       <c r="G2">
-        <v>2754</v>
+        <v>2301</v>
       </c>
       <c r="H2">
-        <v>2348</v>
+        <v>2491</v>
       </c>
       <c r="I2">
-        <v>2945</v>
+        <v>2450</v>
       </c>
       <c r="J2">
-        <v>4184</v>
+        <v>2852</v>
       </c>
       <c r="K2">
-        <v>3430</v>
+        <v>2826</v>
       </c>
       <c r="L2">
-        <v>4502</v>
+        <v>2865</v>
       </c>
       <c r="M2">
-        <v>8151</v>
+        <v>3165</v>
       </c>
       <c r="N2">
-        <v>4697</v>
+        <v>3544</v>
       </c>
       <c r="O2">
-        <v>7111</v>
+        <v>3383</v>
       </c>
       <c r="P2">
-        <v>9631</v>
+        <v>3980</v>
       </c>
       <c r="Q2">
-        <v>10341</v>
+        <v>8678</v>
       </c>
       <c r="R2">
-        <v>15964</v>
+        <v>6531</v>
       </c>
       <c r="S2">
-        <v>24330</v>
+        <v>8707</v>
       </c>
       <c r="T2">
-        <v>26867</v>
+        <v>26678</v>
       </c>
       <c r="U2">
-        <v>24709</v>
+        <v>17962</v>
       </c>
       <c r="V2">
-        <v>39865</v>
+        <v>24821</v>
       </c>
       <c r="W2">
-        <v>50015</v>
+        <v>53548</v>
       </c>
       <c r="X2">
-        <v>67315</v>
+        <v>49929</v>
       </c>
       <c r="Y2">
-        <v>66722</v>
+        <v>67156</v>
       </c>
       <c r="Z2">
-        <v>142638</v>
+        <v>110837</v>
       </c>
       <c r="AA2">
-        <v>115394</v>
+        <v>109829</v>
       </c>
       <c r="AB2">
-        <v>116197</v>
+        <v>131927</v>
       </c>
       <c r="AC2">
-        <v>325282</v>
+        <v>159369</v>
       </c>
       <c r="AD2">
-        <v>261657</v>
+        <v>171578</v>
       </c>
       <c r="AE2">
-        <v>289657</v>
+        <v>209530</v>
       </c>
       <c r="AF2">
-        <v>471691</v>
+        <v>299862</v>
       </c>
       <c r="AG2">
-        <v>458097</v>
+        <v>281327</v>
       </c>
       <c r="AH2">
-        <v>350578</v>
+        <v>299969</v>
       </c>
       <c r="AI2">
-        <v>617679</v>
+        <v>400675</v>
       </c>
       <c r="AJ2">
-        <v>687492</v>
+        <v>414410</v>
       </c>
       <c r="AK2">
-        <v>603854</v>
+        <v>402286</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2.5</v>
       </c>
       <c r="B3">
-        <v>1005</v>
+        <v>1223</v>
       </c>
       <c r="C3">
-        <v>1114</v>
+        <v>1028</v>
       </c>
       <c r="D3">
-        <v>1004</v>
+        <v>1309</v>
       </c>
       <c r="E3">
-        <v>1208</v>
+        <v>1881</v>
       </c>
       <c r="F3">
+        <v>1414</v>
+      </c>
+      <c r="G3">
         <v>1680</v>
       </c>
-      <c r="G3">
-        <v>1785</v>
-      </c>
       <c r="H3">
-        <v>1618</v>
+        <v>1517</v>
       </c>
       <c r="I3">
-        <v>2222</v>
+        <v>1469</v>
       </c>
       <c r="J3">
-        <v>2644</v>
+        <v>1838</v>
       </c>
       <c r="K3">
-        <v>2932</v>
+        <v>1906</v>
       </c>
       <c r="L3">
-        <v>2934</v>
+        <v>1766</v>
       </c>
       <c r="M3">
-        <v>5405</v>
+        <v>1980</v>
       </c>
       <c r="N3">
-        <v>3820</v>
+        <v>2047</v>
       </c>
       <c r="O3">
-        <v>5575</v>
+        <v>2177</v>
       </c>
       <c r="P3">
-        <v>7059</v>
+        <v>2588</v>
       </c>
       <c r="Q3">
-        <v>9325</v>
+        <v>6133</v>
       </c>
       <c r="R3">
-        <v>15057</v>
+        <v>4424</v>
       </c>
       <c r="S3">
-        <v>19638</v>
+        <v>6167</v>
       </c>
       <c r="T3">
-        <v>28167</v>
+        <v>20282</v>
       </c>
       <c r="U3">
-        <v>21802</v>
+        <v>12972</v>
       </c>
       <c r="V3">
-        <v>31763</v>
+        <v>17950</v>
       </c>
       <c r="W3">
-        <v>46578</v>
+        <v>42265</v>
       </c>
       <c r="X3">
-        <v>56957</v>
+        <v>38366</v>
       </c>
       <c r="Y3">
-        <v>55589</v>
+        <v>48077</v>
       </c>
       <c r="Z3">
-        <v>130538</v>
+        <v>89941</v>
       </c>
       <c r="AA3">
-        <v>105088</v>
+        <v>86470</v>
       </c>
       <c r="AB3">
-        <v>100640</v>
+        <v>97145</v>
       </c>
       <c r="AC3">
-        <v>288783</v>
+        <v>132925</v>
       </c>
       <c r="AD3">
-        <v>217642</v>
+        <v>140594</v>
       </c>
       <c r="AE3">
-        <v>242364</v>
+        <v>160308</v>
       </c>
       <c r="AF3">
-        <v>431318</v>
+        <v>253139</v>
       </c>
       <c r="AG3">
-        <v>393573</v>
+        <v>224439</v>
       </c>
       <c r="AH3">
-        <v>280156</v>
+        <v>250333</v>
       </c>
       <c r="AI3">
-        <v>593291</v>
+        <v>353947</v>
       </c>
       <c r="AJ3">
-        <v>602433</v>
+        <v>354362</v>
       </c>
       <c r="AK3">
-        <v>530582</v>
+        <v>346361</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5</v>
       </c>
       <c r="B4">
-        <v>811</v>
+        <v>769</v>
       </c>
       <c r="C4">
-        <v>698</v>
+        <v>1060</v>
       </c>
       <c r="D4">
-        <v>1000</v>
+        <v>945</v>
       </c>
       <c r="E4">
-        <v>1037</v>
+        <v>1284</v>
       </c>
       <c r="F4">
-        <v>1323</v>
+        <v>1295</v>
       </c>
       <c r="G4">
-        <v>1491</v>
+        <v>1387</v>
       </c>
       <c r="H4">
-        <v>1491</v>
+        <v>1216</v>
       </c>
       <c r="I4">
-        <v>1991</v>
+        <v>1494</v>
       </c>
       <c r="J4">
-        <v>2073</v>
+        <v>1432</v>
       </c>
       <c r="K4">
-        <v>2643</v>
+        <v>1583</v>
       </c>
       <c r="L4">
-        <v>2966</v>
+        <v>1618</v>
       </c>
       <c r="M4">
-        <v>4428</v>
+        <v>1724</v>
       </c>
       <c r="N4">
-        <v>3740</v>
+        <v>1971</v>
       </c>
       <c r="O4">
-        <v>5165</v>
+        <v>2099</v>
       </c>
       <c r="P4">
-        <v>7142</v>
+        <v>2417</v>
       </c>
       <c r="Q4">
-        <v>9395</v>
+        <v>5802</v>
       </c>
       <c r="R4">
-        <v>13934</v>
+        <v>4049</v>
       </c>
       <c r="S4">
-        <v>18718</v>
+        <v>5263</v>
       </c>
       <c r="T4">
-        <v>29595</v>
+        <v>18498</v>
       </c>
       <c r="U4">
-        <v>22394</v>
+        <v>11984</v>
       </c>
       <c r="V4">
-        <v>28950</v>
+        <v>15579</v>
       </c>
       <c r="W4">
-        <v>48589</v>
+        <v>38090</v>
       </c>
       <c r="X4">
-        <v>53300</v>
+        <v>34923</v>
       </c>
       <c r="Y4">
-        <v>51341</v>
+        <v>42993</v>
       </c>
       <c r="Z4">
-        <v>128366</v>
+        <v>81959</v>
       </c>
       <c r="AA4">
-        <v>98589</v>
+        <v>78276</v>
       </c>
       <c r="AB4">
-        <v>92362</v>
+        <v>86632</v>
       </c>
       <c r="AC4">
-        <v>283687</v>
+        <v>118485</v>
       </c>
       <c r="AD4">
-        <v>206429</v>
+        <v>132084</v>
       </c>
       <c r="AE4">
-        <v>226381</v>
+        <v>146305</v>
       </c>
       <c r="AF4">
-        <v>412029</v>
+        <v>243173</v>
       </c>
       <c r="AG4">
-        <v>373327</v>
+        <v>215519</v>
       </c>
       <c r="AH4">
-        <v>255957</v>
+        <v>221573</v>
       </c>
       <c r="AI4">
-        <v>563481</v>
+        <v>332655</v>
       </c>
       <c r="AJ4">
-        <v>570982</v>
+        <v>339221</v>
       </c>
       <c r="AK4">
-        <v>487357</v>
+        <v>316369</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>7.5</v>
       </c>
       <c r="B5">
-        <v>725</v>
+        <v>802</v>
       </c>
       <c r="C5">
-        <v>770</v>
+        <v>739</v>
       </c>
       <c r="D5">
-        <v>801</v>
+        <v>1017</v>
       </c>
       <c r="E5">
-        <v>865</v>
+        <v>1077</v>
       </c>
       <c r="F5">
-        <v>1276</v>
+        <v>1040</v>
       </c>
       <c r="G5">
-        <v>1339</v>
+        <v>1223</v>
       </c>
       <c r="H5">
-        <v>1514</v>
+        <v>1125</v>
       </c>
       <c r="I5">
-        <v>1963</v>
+        <v>1104</v>
       </c>
       <c r="J5">
-        <v>2082</v>
+        <v>1496</v>
       </c>
       <c r="K5">
-        <v>2633</v>
+        <v>1800</v>
       </c>
       <c r="L5">
-        <v>2797</v>
+        <v>1411</v>
       </c>
       <c r="M5">
-        <v>4609</v>
+        <v>1661</v>
       </c>
       <c r="N5">
-        <v>3951</v>
+        <v>1656</v>
       </c>
       <c r="O5">
-        <v>5480</v>
+        <v>1716</v>
       </c>
       <c r="P5">
-        <v>13474</v>
+        <v>2230</v>
       </c>
       <c r="Q5">
-        <v>10306</v>
+        <v>5500</v>
       </c>
       <c r="R5">
-        <v>13948</v>
+        <v>3932</v>
       </c>
       <c r="S5">
-        <v>17309</v>
+        <v>5462</v>
       </c>
       <c r="T5">
-        <v>29952</v>
+        <v>18316</v>
       </c>
       <c r="U5">
-        <v>23914</v>
+        <v>11204</v>
       </c>
       <c r="V5">
-        <v>27508</v>
+        <v>14901</v>
       </c>
       <c r="W5">
-        <v>49589</v>
+        <v>37199</v>
       </c>
       <c r="X5">
-        <v>52388</v>
+        <v>32690</v>
       </c>
       <c r="Y5">
-        <v>54891</v>
+        <v>42034</v>
       </c>
       <c r="Z5">
-        <v>134188</v>
+        <v>79199</v>
       </c>
       <c r="AA5">
-        <v>95689</v>
+        <v>75541</v>
       </c>
       <c r="AB5">
-        <v>88290</v>
+        <v>82807</v>
       </c>
       <c r="AC5">
-        <v>292204</v>
+        <v>118614</v>
       </c>
       <c r="AD5">
-        <v>198800</v>
+        <v>123209</v>
       </c>
       <c r="AE5">
-        <v>215306</v>
+        <v>136222</v>
       </c>
       <c r="AF5">
-        <v>401237</v>
+        <v>231106</v>
       </c>
       <c r="AG5">
-        <v>358976</v>
+        <v>205104</v>
       </c>
       <c r="AH5">
-        <v>237793</v>
+        <v>209226</v>
       </c>
       <c r="AI5">
-        <v>549944</v>
+        <v>320284</v>
       </c>
       <c r="AJ5">
-        <v>539493</v>
+        <v>330967</v>
       </c>
       <c r="AK5">
-        <v>475300</v>
+        <v>311896</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>10</v>
       </c>
       <c r="B6">
-        <v>746</v>
+        <v>700</v>
       </c>
       <c r="C6">
-        <v>572</v>
+        <v>727</v>
       </c>
       <c r="D6">
-        <v>796</v>
+        <v>965</v>
       </c>
       <c r="E6">
-        <v>772</v>
+        <v>1220</v>
       </c>
       <c r="F6">
-        <v>1118</v>
+        <v>1043</v>
       </c>
       <c r="G6">
-        <v>1367</v>
+        <v>1210</v>
       </c>
       <c r="H6">
-        <v>1281</v>
+        <v>1189</v>
       </c>
       <c r="I6">
-        <v>1729</v>
+        <v>1078</v>
       </c>
       <c r="J6">
-        <v>1839</v>
+        <v>1305</v>
       </c>
       <c r="K6">
-        <v>2683</v>
+        <v>1826</v>
       </c>
       <c r="L6">
-        <v>2934</v>
+        <v>1363</v>
       </c>
       <c r="M6">
-        <v>4574</v>
+        <v>1705</v>
       </c>
       <c r="N6">
-        <v>4385</v>
+        <v>1717</v>
       </c>
       <c r="O6">
-        <v>5321</v>
+        <v>1771</v>
       </c>
       <c r="P6">
-        <v>14503</v>
+        <v>2217</v>
       </c>
       <c r="Q6">
-        <v>10560</v>
+        <v>5124</v>
       </c>
       <c r="R6">
-        <v>13831</v>
+        <v>3922</v>
       </c>
       <c r="S6">
-        <v>16919</v>
+        <v>5327</v>
       </c>
       <c r="T6">
-        <v>30955</v>
+        <v>17977</v>
       </c>
       <c r="U6">
-        <v>23716</v>
+        <v>11127</v>
       </c>
       <c r="V6">
-        <v>26468</v>
+        <v>14642</v>
       </c>
       <c r="W6">
-        <v>49592</v>
+        <v>37112</v>
       </c>
       <c r="X6">
-        <v>51378</v>
+        <v>32315</v>
       </c>
       <c r="Y6">
-        <v>51703</v>
+        <v>40841</v>
       </c>
       <c r="Z6">
-        <v>125516</v>
+        <v>77845</v>
       </c>
       <c r="AA6">
-        <v>92403</v>
+        <v>73975</v>
       </c>
       <c r="AB6">
-        <v>86780</v>
+        <v>80620</v>
       </c>
       <c r="AC6">
-        <v>283547</v>
+        <v>112649</v>
       </c>
       <c r="AD6">
-        <v>201267</v>
+        <v>117768</v>
       </c>
       <c r="AE6">
-        <v>213114</v>
+        <v>136137</v>
       </c>
       <c r="AF6">
-        <v>396214</v>
+        <v>226348</v>
       </c>
       <c r="AG6">
-        <v>357850</v>
+        <v>194909</v>
       </c>
       <c r="AH6">
-        <v>232080</v>
+        <v>209067</v>
       </c>
       <c r="AI6">
-        <v>560718</v>
+        <v>312330</v>
       </c>
       <c r="AJ6">
-        <v>530990</v>
+        <v>311229</v>
       </c>
       <c r="AK6">
-        <v>456130</v>
+        <v>297739</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>12.5</v>
       </c>
       <c r="B7">
-        <v>636</v>
+        <v>764</v>
       </c>
       <c r="C7">
-        <v>608</v>
+        <v>769</v>
       </c>
       <c r="D7">
-        <v>616</v>
+        <v>752</v>
       </c>
       <c r="E7">
-        <v>862</v>
+        <v>1080</v>
       </c>
       <c r="F7">
-        <v>989</v>
+        <v>941</v>
       </c>
       <c r="G7">
-        <v>1169</v>
+        <v>1202</v>
       </c>
       <c r="H7">
-        <v>1302</v>
+        <v>1199</v>
       </c>
       <c r="I7">
-        <v>1739</v>
+        <v>1142</v>
       </c>
       <c r="J7">
-        <v>1694</v>
+        <v>1177</v>
       </c>
       <c r="K7">
-        <v>2926</v>
+        <v>1666</v>
       </c>
       <c r="L7">
-        <v>2752</v>
+        <v>1157</v>
       </c>
       <c r="M7">
-        <v>4010</v>
+        <v>1390</v>
       </c>
       <c r="N7">
-        <v>4703</v>
+        <v>1465</v>
       </c>
       <c r="O7">
-        <v>4999</v>
+        <v>1655</v>
       </c>
       <c r="P7">
-        <v>11275</v>
+        <v>1952</v>
       </c>
       <c r="Q7">
-        <v>10972</v>
+        <v>5151</v>
       </c>
       <c r="R7">
-        <v>13619</v>
+        <v>3431</v>
       </c>
       <c r="S7">
-        <v>14884</v>
+        <v>4685</v>
       </c>
       <c r="T7">
-        <v>30775</v>
+        <v>17609</v>
       </c>
       <c r="U7">
-        <v>22169</v>
+        <v>11025</v>
       </c>
       <c r="V7">
-        <v>24513</v>
+        <v>14174</v>
       </c>
       <c r="W7">
-        <v>50509</v>
+        <v>36203</v>
       </c>
       <c r="X7">
-        <v>48367</v>
+        <v>32386</v>
       </c>
       <c r="Y7">
-        <v>46660</v>
+        <v>39404</v>
       </c>
       <c r="Z7">
-        <v>125264</v>
+        <v>75099</v>
       </c>
       <c r="AA7">
-        <v>87803</v>
+        <v>71893</v>
       </c>
       <c r="AB7">
-        <v>82036</v>
+        <v>76244</v>
       </c>
       <c r="AC7">
-        <v>280653</v>
+        <v>106929</v>
       </c>
       <c r="AD7">
-        <v>196011</v>
+        <v>116364</v>
       </c>
       <c r="AE7">
-        <v>206288</v>
+        <v>126948</v>
       </c>
       <c r="AF7">
-        <v>378881</v>
+        <v>209396</v>
       </c>
       <c r="AG7">
-        <v>354014</v>
+        <v>190365</v>
       </c>
       <c r="AH7">
-        <v>229408</v>
+        <v>189546</v>
       </c>
       <c r="AI7">
-        <v>570960</v>
+        <v>298335</v>
       </c>
       <c r="AJ7">
-        <v>496875</v>
+        <v>300708</v>
       </c>
       <c r="AK7">
-        <v>420792</v>
+        <v>279530</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>15</v>
       </c>
       <c r="B8">
-        <v>604</v>
+        <v>638</v>
       </c>
       <c r="C8">
-        <v>521</v>
+        <v>778</v>
       </c>
       <c r="D8">
-        <v>727</v>
+        <v>695</v>
       </c>
       <c r="E8">
-        <v>788</v>
+        <v>919</v>
       </c>
       <c r="F8">
+        <v>851</v>
+      </c>
+      <c r="G8">
+        <v>931</v>
+      </c>
+      <c r="H8">
+        <v>922</v>
+      </c>
+      <c r="I8">
+        <v>903</v>
+      </c>
+      <c r="J8">
         <v>1086</v>
       </c>
-      <c r="G8">
-        <v>1083</v>
-      </c>
-      <c r="H8">
-        <v>1164</v>
-      </c>
-      <c r="I8">
-        <v>1527</v>
-      </c>
-      <c r="J8">
-        <v>1425</v>
-      </c>
       <c r="K8">
-        <v>2757</v>
+        <v>1588</v>
       </c>
       <c r="L8">
-        <v>2305</v>
+        <v>1099</v>
       </c>
       <c r="M8">
-        <v>3522</v>
+        <v>1412</v>
       </c>
       <c r="N8">
-        <v>4034</v>
+        <v>1346</v>
       </c>
       <c r="O8">
-        <v>4803</v>
+        <v>1471</v>
       </c>
       <c r="P8">
-        <v>10097</v>
+        <v>1727</v>
       </c>
       <c r="Q8">
-        <v>11079</v>
+        <v>4883</v>
       </c>
       <c r="R8">
-        <v>12591</v>
+        <v>3452</v>
       </c>
       <c r="S8">
-        <v>14436</v>
+        <v>4613</v>
       </c>
       <c r="T8">
-        <v>30784</v>
+        <v>17612</v>
       </c>
       <c r="U8">
-        <v>22924</v>
+        <v>11147</v>
       </c>
       <c r="V8">
-        <v>23682</v>
+        <v>13554</v>
       </c>
       <c r="W8">
-        <v>50295</v>
+        <v>36462</v>
       </c>
       <c r="X8">
-        <v>46701</v>
+        <v>31907</v>
       </c>
       <c r="Y8">
-        <v>44625</v>
+        <v>38459</v>
       </c>
       <c r="Z8">
-        <v>122781</v>
+        <v>76041</v>
       </c>
       <c r="AA8">
-        <v>84324</v>
+        <v>72676</v>
       </c>
       <c r="AB8">
-        <v>79705</v>
+        <v>75650</v>
       </c>
       <c r="AC8">
-        <v>275547</v>
+        <v>107460</v>
       </c>
       <c r="AD8">
-        <v>198965</v>
+        <v>120390</v>
       </c>
       <c r="AE8">
-        <v>195738</v>
+        <v>128306</v>
       </c>
       <c r="AF8">
-        <v>376139</v>
+        <v>210223</v>
       </c>
       <c r="AG8">
-        <v>340532</v>
+        <v>185433</v>
       </c>
       <c r="AH8">
-        <v>215355</v>
+        <v>188917</v>
       </c>
       <c r="AI8">
-        <v>554704</v>
+        <v>286967</v>
       </c>
       <c r="AJ8">
-        <v>485217</v>
+        <v>293892</v>
       </c>
       <c r="AK8">
-        <v>396317</v>
+        <v>269416</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>17.5</v>
       </c>
       <c r="B9">
-        <v>643</v>
+        <v>655</v>
       </c>
       <c r="C9">
-        <v>474</v>
+        <v>542</v>
       </c>
       <c r="D9">
-        <v>751</v>
+        <v>704</v>
       </c>
       <c r="E9">
-        <v>826</v>
+        <v>875</v>
       </c>
       <c r="F9">
-        <v>956</v>
+        <v>762</v>
       </c>
       <c r="G9">
-        <v>1132</v>
+        <v>817</v>
       </c>
       <c r="H9">
-        <v>1273</v>
+        <v>805</v>
       </c>
       <c r="I9">
-        <v>1710</v>
+        <v>992</v>
       </c>
       <c r="J9">
-        <v>1450</v>
+        <v>1017</v>
       </c>
       <c r="K9">
-        <v>2778</v>
+        <v>1517</v>
       </c>
       <c r="L9">
-        <v>2360</v>
+        <v>1176</v>
       </c>
       <c r="M9">
-        <v>3465</v>
+        <v>1239</v>
       </c>
       <c r="N9">
-        <v>4534</v>
+        <v>1431</v>
       </c>
       <c r="O9">
-        <v>4510</v>
+        <v>1484</v>
       </c>
       <c r="P9">
-        <v>9110</v>
+        <v>1800</v>
       </c>
       <c r="Q9">
-        <v>11290</v>
+        <v>4928</v>
       </c>
       <c r="R9">
-        <v>12456</v>
+        <v>3615</v>
       </c>
       <c r="S9">
-        <v>13829</v>
+        <v>4412</v>
       </c>
       <c r="T9">
-        <v>31073</v>
+        <v>17566</v>
       </c>
       <c r="U9">
-        <v>22304</v>
+        <v>10951</v>
       </c>
       <c r="V9">
-        <v>22853</v>
+        <v>13908</v>
       </c>
       <c r="W9">
-        <v>50706</v>
+        <v>36216</v>
       </c>
       <c r="X9">
-        <v>44907</v>
+        <v>32457</v>
       </c>
       <c r="Y9">
-        <v>43091</v>
+        <v>37832</v>
       </c>
       <c r="Z9">
-        <v>125408</v>
+        <v>74798</v>
       </c>
       <c r="AA9">
-        <v>81240</v>
+        <v>70250</v>
       </c>
       <c r="AB9">
-        <v>77079</v>
+        <v>74256</v>
       </c>
       <c r="AC9">
-        <v>280810</v>
+        <v>104481</v>
       </c>
       <c r="AD9">
-        <v>192298</v>
+        <v>116114</v>
       </c>
       <c r="AE9">
-        <v>195951</v>
+        <v>120099</v>
       </c>
       <c r="AF9">
-        <v>370109</v>
+        <v>203179</v>
       </c>
       <c r="AG9">
-        <v>334405</v>
+        <v>183523</v>
       </c>
       <c r="AH9">
-        <v>209007</v>
+        <v>181509</v>
       </c>
       <c r="AI9">
-        <v>521809</v>
+        <v>284413</v>
       </c>
       <c r="AJ9">
-        <v>480997</v>
+        <v>287209</v>
       </c>
       <c r="AK9">
-        <v>383622</v>
+        <v>271496</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>20</v>
       </c>
       <c r="B10">
-        <v>539</v>
+        <v>725</v>
       </c>
       <c r="C10">
-        <v>448</v>
+        <v>549</v>
       </c>
       <c r="D10">
-        <v>615</v>
+        <v>649</v>
       </c>
       <c r="E10">
-        <v>797</v>
+        <v>938</v>
       </c>
       <c r="F10">
-        <v>856</v>
+        <v>814</v>
       </c>
       <c r="G10">
-        <v>1063</v>
+        <v>780</v>
       </c>
       <c r="H10">
-        <v>1135</v>
+        <v>854</v>
       </c>
       <c r="I10">
-        <v>1589</v>
+        <v>911</v>
       </c>
       <c r="J10">
-        <v>1546</v>
+        <v>955</v>
       </c>
       <c r="K10">
-        <v>2934</v>
+        <v>1687</v>
       </c>
       <c r="L10">
-        <v>2158</v>
+        <v>1037</v>
       </c>
       <c r="M10">
-        <v>3305</v>
+        <v>1237</v>
       </c>
       <c r="N10">
-        <v>4444</v>
+        <v>1355</v>
       </c>
       <c r="O10">
-        <v>4679</v>
+        <v>1336</v>
       </c>
       <c r="P10">
-        <v>9177</v>
+        <v>1633</v>
       </c>
       <c r="Q10">
-        <v>11738</v>
+        <v>4940</v>
       </c>
       <c r="R10">
-        <v>12186</v>
+        <v>3485</v>
       </c>
       <c r="S10">
-        <v>13590</v>
+        <v>4502</v>
       </c>
       <c r="T10">
-        <v>31235</v>
+        <v>17833</v>
       </c>
       <c r="U10">
-        <v>23349</v>
+        <v>11042</v>
       </c>
       <c r="V10">
-        <v>21793</v>
+        <v>13151</v>
       </c>
       <c r="W10">
-        <v>48885</v>
+        <v>35780</v>
       </c>
       <c r="X10">
-        <v>43564</v>
+        <v>32467</v>
       </c>
       <c r="Y10">
-        <v>43133</v>
+        <v>37847</v>
       </c>
       <c r="Z10">
-        <v>122426</v>
+        <v>74818</v>
       </c>
       <c r="AA10">
-        <v>79038</v>
+        <v>69886</v>
       </c>
       <c r="AB10">
-        <v>76525</v>
+        <v>74393</v>
       </c>
       <c r="AC10">
-        <v>268642</v>
+        <v>107443</v>
       </c>
       <c r="AD10">
-        <v>193664</v>
+        <v>111857</v>
       </c>
       <c r="AE10">
-        <v>193092</v>
+        <v>121110</v>
       </c>
       <c r="AF10">
-        <v>371944</v>
+        <v>201974</v>
       </c>
       <c r="AG10">
-        <v>327322</v>
+        <v>183875</v>
       </c>
       <c r="AH10">
-        <v>215066</v>
+        <v>176068</v>
       </c>
       <c r="AI10">
-        <v>493859</v>
+        <v>280159</v>
       </c>
       <c r="AJ10">
-        <v>468135</v>
+        <v>285060</v>
       </c>
       <c r="AK10">
-        <v>387901</v>
+        <v>258768</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>22.5</v>
       </c>
       <c r="B11">
-        <v>548</v>
+        <v>588</v>
       </c>
       <c r="C11">
-        <v>549</v>
+        <v>623</v>
       </c>
       <c r="D11">
-        <v>592</v>
+        <v>684</v>
       </c>
       <c r="E11">
-        <v>704</v>
+        <v>685</v>
       </c>
       <c r="F11">
-        <v>822</v>
+        <v>754</v>
       </c>
       <c r="G11">
-        <v>1047</v>
+        <v>921</v>
       </c>
       <c r="H11">
-        <v>1387</v>
+        <v>818</v>
       </c>
       <c r="I11">
-        <v>1507</v>
+        <v>803</v>
       </c>
       <c r="J11">
-        <v>1423</v>
+        <v>924</v>
       </c>
       <c r="K11">
-        <v>2831</v>
+        <v>1458</v>
       </c>
       <c r="L11">
-        <v>2233</v>
+        <v>1033</v>
       </c>
       <c r="M11">
-        <v>2944</v>
+        <v>1246</v>
       </c>
       <c r="N11">
-        <v>4668</v>
+        <v>1342</v>
       </c>
       <c r="O11">
-        <v>4766</v>
+        <v>1294</v>
       </c>
       <c r="P11">
-        <v>8669</v>
+        <v>1624</v>
       </c>
       <c r="Q11">
-        <v>12835</v>
+        <v>4957</v>
       </c>
       <c r="R11">
-        <v>12129</v>
+        <v>3282</v>
       </c>
       <c r="S11">
-        <v>13157</v>
+        <v>4225</v>
       </c>
       <c r="T11">
-        <v>30659</v>
+        <v>17066</v>
       </c>
       <c r="U11">
-        <v>22563</v>
+        <v>10308</v>
       </c>
       <c r="V11">
-        <v>21574</v>
+        <v>13481</v>
       </c>
       <c r="W11">
-        <v>49848</v>
+        <v>36177</v>
       </c>
       <c r="X11">
-        <v>43076</v>
+        <v>31793</v>
       </c>
       <c r="Y11">
-        <v>41554</v>
+        <v>37672</v>
       </c>
       <c r="Z11">
-        <v>119170</v>
+        <v>73640</v>
       </c>
       <c r="AA11">
-        <v>75947</v>
+        <v>69731</v>
       </c>
       <c r="AB11">
-        <v>74770</v>
+        <v>73172</v>
       </c>
       <c r="AC11">
-        <v>276402</v>
+        <v>108931</v>
       </c>
       <c r="AD11">
-        <v>190005</v>
+        <v>112494</v>
       </c>
       <c r="AE11">
-        <v>180620</v>
+        <v>126601</v>
       </c>
       <c r="AF11">
-        <v>364198</v>
+        <v>188554</v>
       </c>
       <c r="AG11">
-        <v>333402</v>
+        <v>173586</v>
       </c>
       <c r="AH11">
-        <v>205943</v>
+        <v>176413</v>
       </c>
       <c r="AI11">
-        <v>464017</v>
+        <v>271599</v>
       </c>
       <c r="AJ11">
-        <v>444432</v>
+        <v>273936</v>
       </c>
       <c r="AK11">
-        <v>373723</v>
+        <v>257849</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>25</v>
       </c>
       <c r="B12">
-        <v>449</v>
+        <v>422</v>
       </c>
       <c r="C12">
-        <v>529</v>
+        <v>603</v>
       </c>
       <c r="D12">
-        <v>408</v>
+        <v>592</v>
       </c>
       <c r="E12">
-        <v>804</v>
+        <v>869</v>
       </c>
       <c r="F12">
-        <v>918</v>
+        <v>783</v>
       </c>
       <c r="G12">
-        <v>975</v>
+        <v>761</v>
       </c>
       <c r="H12">
-        <v>1329</v>
+        <v>715</v>
       </c>
       <c r="I12">
-        <v>1416</v>
+        <v>904</v>
       </c>
       <c r="J12">
-        <v>1211</v>
+        <v>784</v>
       </c>
       <c r="K12">
-        <v>2834</v>
+        <v>1408</v>
       </c>
       <c r="L12">
-        <v>2101</v>
+        <v>882</v>
       </c>
       <c r="M12">
-        <v>2914</v>
+        <v>1177</v>
       </c>
       <c r="N12">
-        <v>4868</v>
+        <v>1146</v>
       </c>
       <c r="O12">
-        <v>4420</v>
+        <v>1256</v>
       </c>
       <c r="P12">
-        <v>8341</v>
+        <v>1373</v>
       </c>
       <c r="Q12">
-        <v>14398</v>
+        <v>4863</v>
       </c>
       <c r="R12">
-        <v>12006</v>
+        <v>3190</v>
       </c>
       <c r="S12">
-        <v>12952</v>
+        <v>4305</v>
       </c>
       <c r="T12">
-        <v>30844</v>
+        <v>17643</v>
       </c>
       <c r="U12">
-        <v>22692</v>
+        <v>10554</v>
       </c>
       <c r="V12">
-        <v>21622</v>
+        <v>13353</v>
       </c>
       <c r="W12">
-        <v>49725</v>
+        <v>34898</v>
       </c>
       <c r="X12">
-        <v>41240</v>
+        <v>31273</v>
       </c>
       <c r="Y12">
-        <v>39921</v>
+        <v>38153</v>
       </c>
       <c r="Z12">
-        <v>114291</v>
+        <v>73621</v>
       </c>
       <c r="AA12">
-        <v>72377</v>
+        <v>68339</v>
       </c>
       <c r="AB12">
-        <v>72788</v>
+        <v>72551</v>
       </c>
       <c r="AC12">
-        <v>266538</v>
+        <v>104026</v>
       </c>
       <c r="AD12">
-        <v>191626</v>
+        <v>105915</v>
       </c>
       <c r="AE12">
-        <v>182074</v>
+        <v>122061</v>
       </c>
       <c r="AF12">
-        <v>359242</v>
+        <v>188805</v>
       </c>
       <c r="AG12">
-        <v>316460</v>
+        <v>172694</v>
       </c>
       <c r="AH12">
-        <v>200943</v>
+        <v>175120</v>
       </c>
       <c r="AI12">
-        <v>428596</v>
+        <v>266539</v>
       </c>
       <c r="AJ12">
-        <v>428322</v>
+        <v>268409</v>
       </c>
       <c r="AK12">
-        <v>363216</v>
+        <v>252385</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>27.5</v>
       </c>
       <c r="B13">
-        <v>496</v>
+        <v>516</v>
       </c>
       <c r="C13">
-        <v>429</v>
+        <v>594</v>
       </c>
       <c r="D13">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="E13">
-        <v>736</v>
+        <v>808</v>
       </c>
       <c r="F13">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="G13">
-        <v>906</v>
+        <v>785</v>
       </c>
       <c r="H13">
-        <v>1541</v>
+        <v>712</v>
       </c>
       <c r="I13">
-        <v>1546</v>
+        <v>745</v>
       </c>
       <c r="J13">
-        <v>1161</v>
+        <v>876</v>
       </c>
       <c r="K13">
-        <v>3074</v>
+        <v>1426</v>
       </c>
       <c r="L13">
-        <v>2059</v>
+        <v>760</v>
       </c>
       <c r="M13">
-        <v>2855</v>
+        <v>1050</v>
       </c>
       <c r="N13">
-        <v>4999</v>
+        <v>1206</v>
       </c>
       <c r="O13">
-        <v>4209</v>
+        <v>1209</v>
       </c>
       <c r="P13">
-        <v>8169</v>
+        <v>1536</v>
       </c>
       <c r="Q13">
-        <v>15573</v>
+        <v>4843</v>
       </c>
       <c r="R13">
-        <v>11565</v>
+        <v>3288</v>
       </c>
       <c r="S13">
-        <v>12454</v>
+        <v>4222</v>
       </c>
       <c r="T13">
-        <v>30067</v>
+        <v>17025</v>
       </c>
       <c r="U13">
-        <v>21825</v>
+        <v>10804</v>
       </c>
       <c r="V13">
-        <v>20030</v>
+        <v>12866</v>
       </c>
       <c r="W13">
-        <v>48499</v>
+        <v>35116</v>
       </c>
       <c r="X13">
-        <v>39763</v>
+        <v>30886</v>
       </c>
       <c r="Y13">
-        <v>39130</v>
+        <v>36489</v>
       </c>
       <c r="Z13">
-        <v>109433</v>
+        <v>73190</v>
       </c>
       <c r="AA13">
-        <v>70477</v>
+        <v>68506</v>
       </c>
       <c r="AB13">
-        <v>70381</v>
+        <v>71277</v>
       </c>
       <c r="AC13">
-        <v>254950</v>
+        <v>101600</v>
       </c>
       <c r="AD13">
-        <v>192444</v>
+        <v>108331</v>
       </c>
       <c r="AE13">
-        <v>168132</v>
+        <v>115387</v>
       </c>
       <c r="AF13">
-        <v>355759</v>
+        <v>193477</v>
       </c>
       <c r="AG13">
-        <v>322400</v>
+        <v>172634</v>
       </c>
       <c r="AH13">
-        <v>199793</v>
+        <v>175081</v>
       </c>
       <c r="AI13">
-        <v>400486</v>
+        <v>260973</v>
       </c>
       <c r="AJ13">
-        <v>430190</v>
+        <v>264104</v>
       </c>
       <c r="AK13">
-        <v>350691</v>
+        <v>246508</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>30</v>
       </c>
       <c r="B14">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="C14">
-        <v>424</v>
+        <v>518</v>
       </c>
       <c r="D14">
-        <v>535</v>
+        <v>581</v>
       </c>
       <c r="E14">
+        <v>734</v>
+      </c>
+      <c r="F14">
+        <v>685</v>
+      </c>
+      <c r="G14">
+        <v>574</v>
+      </c>
+      <c r="H14">
         <v>707</v>
       </c>
-      <c r="F14">
-        <v>768</v>
-      </c>
-      <c r="G14">
-        <v>882</v>
-      </c>
-      <c r="H14">
-        <v>1629</v>
-      </c>
       <c r="I14">
-        <v>1406</v>
+        <v>887</v>
       </c>
       <c r="J14">
-        <v>1225</v>
+        <v>725</v>
       </c>
       <c r="K14">
-        <v>2915</v>
+        <v>1339</v>
       </c>
       <c r="L14">
-        <v>2056</v>
+        <v>858</v>
       </c>
       <c r="M14">
-        <v>2650</v>
+        <v>994</v>
       </c>
       <c r="N14">
-        <v>4725</v>
+        <v>1048</v>
       </c>
       <c r="O14">
-        <v>4179</v>
+        <v>1310</v>
       </c>
       <c r="P14">
-        <v>7728</v>
+        <v>1493</v>
       </c>
       <c r="Q14">
-        <v>16635</v>
+        <v>4695</v>
       </c>
       <c r="R14">
-        <v>11411</v>
+        <v>3380</v>
       </c>
       <c r="S14">
-        <v>11399</v>
+        <v>3733</v>
       </c>
       <c r="T14">
-        <v>29964</v>
+        <v>16767</v>
       </c>
       <c r="U14">
-        <v>22515</v>
+        <v>10637</v>
       </c>
       <c r="V14">
-        <v>20600</v>
+        <v>13012</v>
       </c>
       <c r="W14">
-        <v>47038</v>
+        <v>34014</v>
       </c>
       <c r="X14">
-        <v>38073</v>
+        <v>30457</v>
       </c>
       <c r="Y14">
-        <v>38261</v>
+        <v>36000</v>
       </c>
       <c r="Z14">
-        <v>104771</v>
+        <v>72307</v>
       </c>
       <c r="AA14">
-        <v>67936</v>
+        <v>67294</v>
       </c>
       <c r="AB14">
-        <v>67492</v>
+        <v>68565</v>
       </c>
       <c r="AC14">
-        <v>253624</v>
+        <v>100083</v>
       </c>
       <c r="AD14">
-        <v>187139</v>
+        <v>105055</v>
       </c>
       <c r="AE14">
-        <v>160231</v>
+        <v>109343</v>
       </c>
       <c r="AF14">
-        <v>346745</v>
+        <v>183303</v>
       </c>
       <c r="AG14">
-        <v>314336</v>
+        <v>164219</v>
       </c>
       <c r="AH14">
-        <v>197460</v>
+        <v>168175</v>
       </c>
       <c r="AI14">
-        <v>366325</v>
+        <v>253650</v>
       </c>
       <c r="AJ14">
-        <v>428074</v>
+        <v>254175</v>
       </c>
       <c r="AK14">
-        <v>339891</v>
+        <v>246699</v>
       </c>
     </row>
   </sheetData>
@@ -5125,16 +5121,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF55D72E-8E48-4ED8-B045-B472C7E99BCB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB747E1-E119-4645-9E9D-5E66F2A3ABCF}">
   <dimension ref="A1:AK14"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:AK14"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B1">
         <v>9.765625</v>
       </c>
@@ -5244,1473 +5240,1473 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1764</v>
+        <v>2910</v>
       </c>
       <c r="C2">
-        <v>1933</v>
+        <v>2580</v>
       </c>
       <c r="D2">
-        <v>2174</v>
+        <v>2891</v>
       </c>
       <c r="E2">
-        <v>2810</v>
+        <v>3152</v>
       </c>
       <c r="F2">
-        <v>2424</v>
+        <v>3967</v>
       </c>
       <c r="G2">
-        <v>2673</v>
+        <v>3917</v>
       </c>
       <c r="H2">
-        <v>3462</v>
+        <v>4567</v>
       </c>
       <c r="I2">
-        <v>2834</v>
+        <v>7058</v>
       </c>
       <c r="J2">
-        <v>3894</v>
+        <v>6219</v>
       </c>
       <c r="K2">
-        <v>4657</v>
+        <v>7151</v>
       </c>
       <c r="L2">
-        <v>5044</v>
+        <v>9331</v>
       </c>
       <c r="M2">
-        <v>5005</v>
+        <v>7377</v>
       </c>
       <c r="N2">
-        <v>9044</v>
+        <v>10930</v>
       </c>
       <c r="O2">
-        <v>6655</v>
+        <v>12434</v>
       </c>
       <c r="P2">
-        <v>7300</v>
+        <v>10378</v>
       </c>
       <c r="Q2">
-        <v>12425</v>
+        <v>17057</v>
       </c>
       <c r="R2">
-        <v>14253</v>
+        <v>18433</v>
       </c>
       <c r="S2">
-        <v>12401</v>
+        <v>15432</v>
       </c>
       <c r="T2">
-        <v>21384</v>
+        <v>27562</v>
       </c>
       <c r="U2">
-        <v>22526</v>
+        <v>31602</v>
       </c>
       <c r="V2">
-        <v>18873</v>
+        <v>28412</v>
       </c>
       <c r="W2">
-        <v>27085</v>
+        <v>49153</v>
       </c>
       <c r="X2">
-        <v>33046</v>
+        <v>55151</v>
       </c>
       <c r="Y2">
-        <v>27343</v>
+        <v>47909</v>
       </c>
       <c r="Z2">
-        <v>41041</v>
+        <v>118018</v>
       </c>
       <c r="AA2">
-        <v>55184</v>
+        <v>102320</v>
       </c>
       <c r="AB2">
-        <v>50971</v>
+        <v>88718</v>
       </c>
       <c r="AC2">
-        <v>77797</v>
+        <v>191956</v>
       </c>
       <c r="AD2">
-        <v>88927</v>
+        <v>194271</v>
       </c>
       <c r="AE2">
-        <v>85695</v>
+        <v>213084</v>
       </c>
       <c r="AF2">
-        <v>136844</v>
+        <v>471684</v>
       </c>
       <c r="AG2">
-        <v>168392</v>
+        <v>465738</v>
       </c>
       <c r="AH2">
-        <v>169676</v>
+        <v>295259</v>
       </c>
       <c r="AI2">
-        <v>293303</v>
+        <v>629447</v>
       </c>
       <c r="AJ2">
-        <v>271972</v>
+        <v>629580</v>
       </c>
       <c r="AK2">
-        <v>344141</v>
+        <v>572096</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2.5</v>
       </c>
       <c r="B3">
-        <v>1249</v>
+        <v>2399</v>
       </c>
       <c r="C3">
-        <v>1369</v>
+        <v>2151</v>
       </c>
       <c r="D3">
-        <v>1670</v>
+        <v>2009</v>
       </c>
       <c r="E3">
-        <v>2003</v>
+        <v>2731</v>
       </c>
       <c r="F3">
-        <v>1579</v>
+        <v>2956</v>
       </c>
       <c r="G3">
-        <v>2579</v>
+        <v>3104</v>
       </c>
       <c r="H3">
-        <v>2672</v>
+        <v>4071</v>
       </c>
       <c r="I3">
-        <v>2218</v>
+        <v>6104</v>
       </c>
       <c r="J3">
-        <v>2913</v>
+        <v>5351</v>
       </c>
       <c r="K3">
-        <v>4025</v>
+        <v>6349</v>
       </c>
       <c r="L3">
-        <v>4079</v>
+        <v>8208</v>
       </c>
       <c r="M3">
-        <v>4552</v>
+        <v>6698</v>
       </c>
       <c r="N3">
-        <v>7894</v>
+        <v>9922</v>
       </c>
       <c r="O3">
-        <v>5425</v>
+        <v>11485</v>
       </c>
       <c r="P3">
-        <v>6311</v>
+        <v>9244</v>
       </c>
       <c r="Q3">
-        <v>9547</v>
+        <v>17000</v>
       </c>
       <c r="R3">
-        <v>11923</v>
+        <v>17558</v>
       </c>
       <c r="S3">
-        <v>10201</v>
+        <v>13639</v>
       </c>
       <c r="T3">
-        <v>18249</v>
+        <v>27480</v>
       </c>
       <c r="U3">
-        <v>18621</v>
+        <v>30612</v>
       </c>
       <c r="V3">
-        <v>16492</v>
+        <v>27676</v>
       </c>
       <c r="W3">
-        <v>22416</v>
+        <v>48714</v>
       </c>
       <c r="X3">
-        <v>28229</v>
+        <v>54853</v>
       </c>
       <c r="Y3">
-        <v>24606</v>
+        <v>46806</v>
       </c>
       <c r="Z3">
-        <v>34219</v>
+        <v>124150</v>
       </c>
       <c r="AA3">
-        <v>44563</v>
+        <v>102416</v>
       </c>
       <c r="AB3">
-        <v>45249</v>
+        <v>85657</v>
       </c>
       <c r="AC3">
-        <v>72566</v>
+        <v>194499</v>
       </c>
       <c r="AD3">
-        <v>73474</v>
+        <v>190323</v>
       </c>
       <c r="AE3">
-        <v>75605</v>
+        <v>213104</v>
       </c>
       <c r="AF3">
-        <v>117455</v>
+        <v>471582</v>
       </c>
       <c r="AG3">
-        <v>150676</v>
+        <v>468787</v>
       </c>
       <c r="AH3">
-        <v>145816</v>
+        <v>297757</v>
       </c>
       <c r="AI3">
-        <v>266004</v>
+        <v>611758</v>
       </c>
       <c r="AJ3">
-        <v>260062</v>
+        <v>613945</v>
       </c>
       <c r="AK3">
-        <v>300346</v>
+        <v>547501</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5</v>
       </c>
       <c r="B4">
-        <v>1192</v>
+        <v>2177</v>
       </c>
       <c r="C4">
-        <v>1387</v>
+        <v>1818</v>
       </c>
       <c r="D4">
-        <v>1853</v>
+        <v>1942</v>
       </c>
       <c r="E4">
-        <v>1902</v>
+        <v>2400</v>
       </c>
       <c r="F4">
-        <v>1451</v>
+        <v>2734</v>
       </c>
       <c r="G4">
-        <v>2417</v>
+        <v>2930</v>
       </c>
       <c r="H4">
-        <v>2436</v>
+        <v>4028</v>
       </c>
       <c r="I4">
-        <v>2079</v>
+        <v>6328</v>
       </c>
       <c r="J4">
-        <v>3127</v>
+        <v>5784</v>
       </c>
       <c r="K4">
-        <v>3592</v>
+        <v>6421</v>
       </c>
       <c r="L4">
-        <v>3582</v>
+        <v>8131</v>
       </c>
       <c r="M4">
-        <v>4221</v>
+        <v>6474</v>
       </c>
       <c r="N4">
-        <v>7327</v>
+        <v>10370</v>
       </c>
       <c r="O4">
-        <v>4873</v>
+        <v>11781</v>
       </c>
       <c r="P4">
-        <v>5934</v>
+        <v>8751</v>
       </c>
       <c r="Q4">
-        <v>9131</v>
+        <v>16009</v>
       </c>
       <c r="R4">
-        <v>11088</v>
+        <v>17213</v>
       </c>
       <c r="S4">
-        <v>9662</v>
+        <v>14079</v>
       </c>
       <c r="T4">
-        <v>16185</v>
+        <v>28000</v>
       </c>
       <c r="U4">
-        <v>17631</v>
+        <v>31141</v>
       </c>
       <c r="V4">
-        <v>14772</v>
+        <v>27215</v>
       </c>
       <c r="W4">
-        <v>20757</v>
+        <v>48515</v>
       </c>
       <c r="X4">
-        <v>25565</v>
+        <v>54069</v>
       </c>
       <c r="Y4">
-        <v>23116</v>
+        <v>47080</v>
       </c>
       <c r="Z4">
-        <v>31694</v>
+        <v>118827</v>
       </c>
       <c r="AA4">
-        <v>41890</v>
+        <v>100642</v>
       </c>
       <c r="AB4">
-        <v>41331</v>
+        <v>87237</v>
       </c>
       <c r="AC4">
-        <v>69743</v>
+        <v>192088</v>
       </c>
       <c r="AD4">
-        <v>67524</v>
+        <v>202318</v>
       </c>
       <c r="AE4">
-        <v>68575</v>
+        <v>211405</v>
       </c>
       <c r="AF4">
-        <v>111702</v>
+        <v>464060</v>
       </c>
       <c r="AG4">
-        <v>141691</v>
+        <v>454000</v>
       </c>
       <c r="AH4">
-        <v>131864</v>
+        <v>287730</v>
       </c>
       <c r="AI4">
-        <v>269887</v>
+        <v>615160</v>
       </c>
       <c r="AJ4">
-        <v>237359</v>
+        <v>582753</v>
       </c>
       <c r="AK4">
-        <v>289026</v>
+        <v>530507</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>7.5</v>
       </c>
       <c r="B5">
-        <v>1100</v>
+        <v>1776</v>
       </c>
       <c r="C5">
-        <v>1270</v>
+        <v>2031</v>
       </c>
       <c r="D5">
-        <v>1403</v>
+        <v>1841</v>
       </c>
       <c r="E5">
-        <v>1628</v>
+        <v>2394</v>
       </c>
       <c r="F5">
-        <v>1293</v>
+        <v>2639</v>
       </c>
       <c r="G5">
-        <v>2256</v>
+        <v>2716</v>
       </c>
       <c r="H5">
-        <v>2228</v>
+        <v>3933</v>
       </c>
       <c r="I5">
-        <v>1871</v>
+        <v>6171</v>
       </c>
       <c r="J5">
-        <v>2899</v>
+        <v>5134</v>
       </c>
       <c r="K5">
-        <v>3088</v>
+        <v>6443</v>
       </c>
       <c r="L5">
-        <v>3403</v>
+        <v>8515</v>
       </c>
       <c r="M5">
-        <v>3663</v>
+        <v>6457</v>
       </c>
       <c r="N5">
-        <v>7515</v>
+        <v>9735</v>
       </c>
       <c r="O5">
-        <v>5051</v>
+        <v>11383</v>
       </c>
       <c r="P5">
-        <v>5745</v>
+        <v>9069</v>
       </c>
       <c r="Q5">
-        <v>8911</v>
+        <v>16909</v>
       </c>
       <c r="R5">
-        <v>10214</v>
+        <v>17608</v>
       </c>
       <c r="S5">
-        <v>9303</v>
+        <v>13527</v>
       </c>
       <c r="T5">
-        <v>15036</v>
+        <v>28243</v>
       </c>
       <c r="U5">
-        <v>17603</v>
+        <v>30725</v>
       </c>
       <c r="V5">
-        <v>14415</v>
+        <v>26923</v>
       </c>
       <c r="W5">
-        <v>19824</v>
+        <v>48753</v>
       </c>
       <c r="X5">
-        <v>23652</v>
+        <v>53582</v>
       </c>
       <c r="Y5">
-        <v>22763</v>
+        <v>46674</v>
       </c>
       <c r="Z5">
-        <v>29155</v>
+        <v>121319</v>
       </c>
       <c r="AA5">
-        <v>41216</v>
+        <v>100974</v>
       </c>
       <c r="AB5">
-        <v>38246</v>
+        <v>85171</v>
       </c>
       <c r="AC5">
-        <v>68008</v>
+        <v>188183</v>
       </c>
       <c r="AD5">
-        <v>64707</v>
+        <v>198944</v>
       </c>
       <c r="AE5">
-        <v>64723</v>
+        <v>205728</v>
       </c>
       <c r="AF5">
-        <v>112938</v>
+        <v>455373</v>
       </c>
       <c r="AG5">
-        <v>144702</v>
+        <v>449919</v>
       </c>
       <c r="AH5">
-        <v>125339</v>
+        <v>289008</v>
       </c>
       <c r="AI5">
-        <v>252615</v>
+        <v>604651</v>
       </c>
       <c r="AJ5">
-        <v>228141</v>
+        <v>580120</v>
       </c>
       <c r="AK5">
-        <v>257835</v>
+        <v>525333</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>10</v>
       </c>
       <c r="B6">
-        <v>980</v>
+        <v>1640</v>
       </c>
       <c r="C6">
-        <v>1203</v>
+        <v>1804</v>
       </c>
       <c r="D6">
-        <v>1173</v>
+        <v>1709</v>
       </c>
       <c r="E6">
-        <v>1507</v>
+        <v>2421</v>
       </c>
       <c r="F6">
-        <v>1283</v>
+        <v>2842</v>
       </c>
       <c r="G6">
-        <v>1867</v>
+        <v>2810</v>
       </c>
       <c r="H6">
-        <v>2347</v>
+        <v>3499</v>
       </c>
       <c r="I6">
-        <v>1835</v>
+        <v>5889</v>
       </c>
       <c r="J6">
-        <v>2337</v>
+        <v>5376</v>
       </c>
       <c r="K6">
-        <v>3229</v>
+        <v>5731</v>
       </c>
       <c r="L6">
-        <v>3359</v>
+        <v>8305</v>
       </c>
       <c r="M6">
-        <v>3700</v>
+        <v>6367</v>
       </c>
       <c r="N6">
-        <v>8041</v>
+        <v>9743</v>
       </c>
       <c r="O6">
-        <v>4646</v>
+        <v>11363</v>
       </c>
       <c r="P6">
-        <v>5534</v>
+        <v>8681</v>
       </c>
       <c r="Q6">
-        <v>8736</v>
+        <v>16665</v>
       </c>
       <c r="R6">
-        <v>10007</v>
+        <v>16831</v>
       </c>
       <c r="S6">
-        <v>9075</v>
+        <v>13195</v>
       </c>
       <c r="T6">
-        <v>14454</v>
+        <v>27098</v>
       </c>
       <c r="U6">
-        <v>16933</v>
+        <v>29469</v>
       </c>
       <c r="V6">
-        <v>13871</v>
+        <v>26753</v>
       </c>
       <c r="W6">
-        <v>19710</v>
+        <v>48520</v>
       </c>
       <c r="X6">
-        <v>22999</v>
+        <v>52761</v>
       </c>
       <c r="Y6">
-        <v>22264</v>
+        <v>45601</v>
       </c>
       <c r="Z6">
-        <v>28054</v>
+        <v>115245</v>
       </c>
       <c r="AA6">
-        <v>39616</v>
+        <v>99654</v>
       </c>
       <c r="AB6">
-        <v>36202</v>
+        <v>84571</v>
       </c>
       <c r="AC6">
-        <v>67990</v>
+        <v>189585</v>
       </c>
       <c r="AD6">
-        <v>64134</v>
+        <v>185138</v>
       </c>
       <c r="AE6">
-        <v>61695</v>
+        <v>204743</v>
       </c>
       <c r="AF6">
-        <v>104785</v>
+        <v>445946</v>
       </c>
       <c r="AG6">
-        <v>136627</v>
+        <v>437923</v>
       </c>
       <c r="AH6">
-        <v>125818</v>
+        <v>287404</v>
       </c>
       <c r="AI6">
-        <v>257952</v>
+        <v>556696</v>
       </c>
       <c r="AJ6">
-        <v>222670</v>
+        <v>558853</v>
       </c>
       <c r="AK6">
-        <v>267077</v>
+        <v>491639</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>12.5</v>
       </c>
       <c r="B7">
-        <v>890</v>
+        <v>1391</v>
       </c>
       <c r="C7">
-        <v>1137</v>
+        <v>1721</v>
       </c>
       <c r="D7">
-        <v>1151</v>
+        <v>1765</v>
       </c>
       <c r="E7">
-        <v>1456</v>
+        <v>2270</v>
       </c>
       <c r="F7">
-        <v>1192</v>
+        <v>2423</v>
       </c>
       <c r="G7">
-        <v>1707</v>
+        <v>2571</v>
       </c>
       <c r="H7">
-        <v>2089</v>
+        <v>3706</v>
       </c>
       <c r="I7">
-        <v>1448</v>
+        <v>5938</v>
       </c>
       <c r="J7">
-        <v>2490</v>
+        <v>4902</v>
       </c>
       <c r="K7">
-        <v>3039</v>
+        <v>5651</v>
       </c>
       <c r="L7">
-        <v>2765</v>
+        <v>8009</v>
       </c>
       <c r="M7">
-        <v>3424</v>
+        <v>5964</v>
       </c>
       <c r="N7">
-        <v>8317</v>
+        <v>9115</v>
       </c>
       <c r="O7">
-        <v>4380</v>
+        <v>11269</v>
       </c>
       <c r="P7">
-        <v>5059</v>
+        <v>8328</v>
       </c>
       <c r="Q7">
-        <v>8833</v>
+        <v>15839</v>
       </c>
       <c r="R7">
-        <v>9554</v>
+        <v>16746</v>
       </c>
       <c r="S7">
-        <v>8123</v>
+        <v>12608</v>
       </c>
       <c r="T7">
-        <v>13813</v>
+        <v>26423</v>
       </c>
       <c r="U7">
-        <v>16990</v>
+        <v>29855</v>
       </c>
       <c r="V7">
-        <v>13335</v>
+        <v>24637</v>
       </c>
       <c r="W7">
-        <v>18473</v>
+        <v>45750</v>
       </c>
       <c r="X7">
-        <v>21719</v>
+        <v>51405</v>
       </c>
       <c r="Y7">
-        <v>22544</v>
+        <v>43997</v>
       </c>
       <c r="Z7">
-        <v>27329</v>
+        <v>110422</v>
       </c>
       <c r="AA7">
-        <v>38743</v>
+        <v>97402</v>
       </c>
       <c r="AB7">
-        <v>34486</v>
+        <v>81206</v>
       </c>
       <c r="AC7">
-        <v>67769</v>
+        <v>181555</v>
       </c>
       <c r="AD7">
-        <v>60884</v>
+        <v>190534</v>
       </c>
       <c r="AE7">
-        <v>57516</v>
+        <v>196229</v>
       </c>
       <c r="AF7">
-        <v>99355</v>
+        <v>431249</v>
       </c>
       <c r="AG7">
-        <v>134654</v>
+        <v>416020</v>
       </c>
       <c r="AH7">
-        <v>113338</v>
+        <v>272503</v>
       </c>
       <c r="AI7">
-        <v>247191</v>
+        <v>547519</v>
       </c>
       <c r="AJ7">
-        <v>223372</v>
+        <v>531598</v>
       </c>
       <c r="AK7">
-        <v>232837</v>
+        <v>455796</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>15</v>
       </c>
       <c r="B8">
-        <v>903</v>
+        <v>1390</v>
       </c>
       <c r="C8">
-        <v>921</v>
+        <v>1617</v>
       </c>
       <c r="D8">
-        <v>1179</v>
+        <v>1617</v>
       </c>
       <c r="E8">
-        <v>1442</v>
+        <v>2143</v>
       </c>
       <c r="F8">
-        <v>1149</v>
+        <v>2446</v>
       </c>
       <c r="G8">
-        <v>1930</v>
+        <v>2543</v>
       </c>
       <c r="H8">
-        <v>1707</v>
+        <v>3543</v>
       </c>
       <c r="I8">
-        <v>1531</v>
+        <v>5424</v>
       </c>
       <c r="J8">
-        <v>2240</v>
+        <v>4838</v>
       </c>
       <c r="K8">
-        <v>3035</v>
+        <v>5951</v>
       </c>
       <c r="L8">
-        <v>2802</v>
+        <v>7542</v>
       </c>
       <c r="M8">
-        <v>3391</v>
+        <v>5848</v>
       </c>
       <c r="N8">
-        <v>8408</v>
+        <v>9256</v>
       </c>
       <c r="O8">
-        <v>4038</v>
+        <v>10685</v>
       </c>
       <c r="P8">
-        <v>5099</v>
+        <v>7634</v>
       </c>
       <c r="Q8">
-        <v>8373</v>
+        <v>16018</v>
       </c>
       <c r="R8">
-        <v>9182</v>
+        <v>16858</v>
       </c>
       <c r="S8">
-        <v>8530</v>
+        <v>12852</v>
       </c>
       <c r="T8">
-        <v>13110</v>
+        <v>25687</v>
       </c>
       <c r="U8">
-        <v>17288</v>
+        <v>29348</v>
       </c>
       <c r="V8">
-        <v>13555</v>
+        <v>24947</v>
       </c>
       <c r="W8">
-        <v>18661</v>
+        <v>45727</v>
       </c>
       <c r="X8">
-        <v>20481</v>
+        <v>51488</v>
       </c>
       <c r="Y8">
-        <v>22057</v>
+        <v>42243</v>
       </c>
       <c r="Z8">
-        <v>26485</v>
+        <v>118314</v>
       </c>
       <c r="AA8">
-        <v>37280</v>
+        <v>95745</v>
       </c>
       <c r="AB8">
-        <v>34158</v>
+        <v>80526</v>
       </c>
       <c r="AC8">
-        <v>66886</v>
+        <v>180174</v>
       </c>
       <c r="AD8">
-        <v>59718</v>
+        <v>184006</v>
       </c>
       <c r="AE8">
-        <v>56043</v>
+        <v>188665</v>
       </c>
       <c r="AF8">
-        <v>96394</v>
+        <v>419546</v>
       </c>
       <c r="AG8">
-        <v>121323</v>
+        <v>410947</v>
       </c>
       <c r="AH8">
-        <v>112393</v>
+        <v>275900</v>
       </c>
       <c r="AI8">
-        <v>234826</v>
+        <v>533686</v>
       </c>
       <c r="AJ8">
-        <v>215832</v>
+        <v>529091</v>
       </c>
       <c r="AK8">
-        <v>238578</v>
+        <v>445259</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>17.5</v>
       </c>
       <c r="B9">
-        <v>867</v>
+        <v>1196</v>
       </c>
       <c r="C9">
-        <v>1021</v>
+        <v>1536</v>
       </c>
       <c r="D9">
-        <v>1087</v>
+        <v>1605</v>
       </c>
       <c r="E9">
-        <v>1263</v>
+        <v>2233</v>
       </c>
       <c r="F9">
-        <v>1126</v>
+        <v>2588</v>
       </c>
       <c r="G9">
-        <v>1748</v>
+        <v>2559</v>
       </c>
       <c r="H9">
-        <v>1776</v>
+        <v>3314</v>
       </c>
       <c r="I9">
-        <v>1474</v>
+        <v>5681</v>
       </c>
       <c r="J9">
-        <v>2294</v>
+        <v>4665</v>
       </c>
       <c r="K9">
-        <v>3043</v>
+        <v>5618</v>
       </c>
       <c r="L9">
-        <v>2911</v>
+        <v>7123</v>
       </c>
       <c r="M9">
-        <v>3379</v>
+        <v>5506</v>
       </c>
       <c r="N9">
-        <v>8428</v>
+        <v>9033</v>
       </c>
       <c r="O9">
-        <v>4104</v>
+        <v>10649</v>
       </c>
       <c r="P9">
-        <v>5152</v>
+        <v>7976</v>
       </c>
       <c r="Q9">
-        <v>8471</v>
+        <v>15358</v>
       </c>
       <c r="R9">
-        <v>9114</v>
+        <v>16391</v>
       </c>
       <c r="S9">
-        <v>8103</v>
+        <v>12200</v>
       </c>
       <c r="T9">
-        <v>12313</v>
+        <v>25224</v>
       </c>
       <c r="U9">
-        <v>17354</v>
+        <v>28914</v>
       </c>
       <c r="V9">
-        <v>13220</v>
+        <v>24519</v>
       </c>
       <c r="W9">
-        <v>18490</v>
+        <v>45104</v>
       </c>
       <c r="X9">
-        <v>21043</v>
+        <v>51081</v>
       </c>
       <c r="Y9">
-        <v>21973</v>
+        <v>42148</v>
       </c>
       <c r="Z9">
-        <v>25416</v>
+        <v>109505</v>
       </c>
       <c r="AA9">
-        <v>36127</v>
+        <v>96428</v>
       </c>
       <c r="AB9">
-        <v>33810</v>
+        <v>79094</v>
       </c>
       <c r="AC9">
-        <v>67325</v>
+        <v>176697</v>
       </c>
       <c r="AD9">
-        <v>58838</v>
+        <v>182500</v>
       </c>
       <c r="AE9">
-        <v>53823</v>
+        <v>188289</v>
       </c>
       <c r="AF9">
-        <v>94938</v>
+        <v>406158</v>
       </c>
       <c r="AG9">
-        <v>119257</v>
+        <v>403045</v>
       </c>
       <c r="AH9">
-        <v>110928</v>
+        <v>261242</v>
       </c>
       <c r="AI9">
-        <v>240903</v>
+        <v>512719</v>
       </c>
       <c r="AJ9">
-        <v>205037</v>
+        <v>507369</v>
       </c>
       <c r="AK9">
-        <v>221532</v>
+        <v>432335</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>20</v>
       </c>
       <c r="B10">
-        <v>724</v>
+        <v>1128</v>
       </c>
       <c r="C10">
-        <v>946</v>
+        <v>1589</v>
       </c>
       <c r="D10">
-        <v>985</v>
+        <v>1435</v>
       </c>
       <c r="E10">
-        <v>1311</v>
+        <v>2134</v>
       </c>
       <c r="F10">
-        <v>1008</v>
+        <v>2407</v>
       </c>
       <c r="G10">
-        <v>1678</v>
+        <v>2280</v>
       </c>
       <c r="H10">
-        <v>1879</v>
+        <v>3184</v>
       </c>
       <c r="I10">
-        <v>1279</v>
+        <v>5595</v>
       </c>
       <c r="J10">
-        <v>2296</v>
+        <v>4338</v>
       </c>
       <c r="K10">
-        <v>3104</v>
+        <v>5270</v>
       </c>
       <c r="L10">
-        <v>2641</v>
+        <v>7502</v>
       </c>
       <c r="M10">
-        <v>3252</v>
+        <v>5569</v>
       </c>
       <c r="N10">
-        <v>8050</v>
+        <v>8814</v>
       </c>
       <c r="O10">
-        <v>3578</v>
+        <v>10329</v>
       </c>
       <c r="P10">
-        <v>4859</v>
+        <v>7798</v>
       </c>
       <c r="Q10">
-        <v>8243</v>
+        <v>15527</v>
       </c>
       <c r="R10">
-        <v>8855</v>
+        <v>16021</v>
       </c>
       <c r="S10">
-        <v>8077</v>
+        <v>11942</v>
       </c>
       <c r="T10">
-        <v>12093</v>
+        <v>24942</v>
       </c>
       <c r="U10">
-        <v>17530</v>
+        <v>28134</v>
       </c>
       <c r="V10">
-        <v>12484</v>
+        <v>24000</v>
       </c>
       <c r="W10">
-        <v>18075</v>
+        <v>44272</v>
       </c>
       <c r="X10">
-        <v>20117</v>
+        <v>50081</v>
       </c>
       <c r="Y10">
-        <v>22149</v>
+        <v>40796</v>
       </c>
       <c r="Z10">
-        <v>25362</v>
+        <v>110237</v>
       </c>
       <c r="AA10">
-        <v>36200</v>
+        <v>91158</v>
       </c>
       <c r="AB10">
-        <v>32065</v>
+        <v>76683</v>
       </c>
       <c r="AC10">
-        <v>67004</v>
+        <v>173505</v>
       </c>
       <c r="AD10">
-        <v>57838</v>
+        <v>179749</v>
       </c>
       <c r="AE10">
-        <v>51456</v>
+        <v>177450</v>
       </c>
       <c r="AF10">
-        <v>92584</v>
+        <v>397964</v>
       </c>
       <c r="AG10">
-        <v>118928</v>
+        <v>385943</v>
       </c>
       <c r="AH10">
-        <v>112667</v>
+        <v>252810</v>
       </c>
       <c r="AI10">
-        <v>235833</v>
+        <v>491337</v>
       </c>
       <c r="AJ10">
-        <v>207091</v>
+        <v>486265</v>
       </c>
       <c r="AK10">
-        <v>227575</v>
+        <v>427186</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>22.5</v>
       </c>
       <c r="B11">
-        <v>731</v>
+        <v>919</v>
       </c>
       <c r="C11">
-        <v>812</v>
+        <v>1525</v>
       </c>
       <c r="D11">
-        <v>992</v>
+        <v>1379</v>
       </c>
       <c r="E11">
-        <v>1333</v>
+        <v>2060</v>
       </c>
       <c r="F11">
-        <v>912</v>
+        <v>2232</v>
       </c>
       <c r="G11">
-        <v>1601</v>
+        <v>2215</v>
       </c>
       <c r="H11">
-        <v>1558</v>
+        <v>3186</v>
       </c>
       <c r="I11">
-        <v>1258</v>
+        <v>5756</v>
       </c>
       <c r="J11">
-        <v>1997</v>
+        <v>4382</v>
       </c>
       <c r="K11">
-        <v>2777</v>
+        <v>5373</v>
       </c>
       <c r="L11">
-        <v>2551</v>
+        <v>7325</v>
       </c>
       <c r="M11">
-        <v>3279</v>
+        <v>5440</v>
       </c>
       <c r="N11">
-        <v>8557</v>
+        <v>8707</v>
       </c>
       <c r="O11">
-        <v>4086</v>
+        <v>10108</v>
       </c>
       <c r="P11">
-        <v>4646</v>
+        <v>7484</v>
       </c>
       <c r="Q11">
-        <v>8453</v>
+        <v>14870</v>
       </c>
       <c r="R11">
-        <v>8567</v>
+        <v>15601</v>
       </c>
       <c r="S11">
-        <v>7782</v>
+        <v>11630</v>
       </c>
       <c r="T11">
-        <v>11706</v>
+        <v>23726</v>
       </c>
       <c r="U11">
-        <v>17032</v>
+        <v>26722</v>
       </c>
       <c r="V11">
-        <v>12475</v>
+        <v>23208</v>
       </c>
       <c r="W11">
-        <v>17903</v>
+        <v>42326</v>
       </c>
       <c r="X11">
-        <v>20358</v>
+        <v>49366</v>
       </c>
       <c r="Y11">
-        <v>23205</v>
+        <v>40648</v>
       </c>
       <c r="Z11">
-        <v>24952</v>
+        <v>105759</v>
       </c>
       <c r="AA11">
-        <v>36455</v>
+        <v>91031</v>
       </c>
       <c r="AB11">
-        <v>31334</v>
+        <v>78771</v>
       </c>
       <c r="AC11">
-        <v>65779</v>
+        <v>174578</v>
       </c>
       <c r="AD11">
-        <v>57795</v>
+        <v>177712</v>
       </c>
       <c r="AE11">
-        <v>50826</v>
+        <v>178097</v>
       </c>
       <c r="AF11">
-        <v>90260</v>
+        <v>380171</v>
       </c>
       <c r="AG11">
-        <v>115944</v>
+        <v>376623</v>
       </c>
       <c r="AH11">
-        <v>106273</v>
+        <v>244092</v>
       </c>
       <c r="AI11">
-        <v>231974</v>
+        <v>483626</v>
       </c>
       <c r="AJ11">
-        <v>196461</v>
+        <v>463352</v>
       </c>
       <c r="AK11">
-        <v>212643</v>
+        <v>408405</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>25</v>
       </c>
       <c r="B12">
-        <v>796</v>
+        <v>893</v>
       </c>
       <c r="C12">
-        <v>824</v>
+        <v>1361</v>
       </c>
       <c r="D12">
-        <v>1100</v>
+        <v>1410</v>
       </c>
       <c r="E12">
-        <v>1179</v>
+        <v>1755</v>
       </c>
       <c r="F12">
-        <v>942</v>
+        <v>2105</v>
       </c>
       <c r="G12">
-        <v>1547</v>
+        <v>2317</v>
       </c>
       <c r="H12">
-        <v>1766</v>
+        <v>3019</v>
       </c>
       <c r="I12">
-        <v>1177</v>
+        <v>5066</v>
       </c>
       <c r="J12">
-        <v>1997</v>
+        <v>4403</v>
       </c>
       <c r="K12">
-        <v>2683</v>
+        <v>5413</v>
       </c>
       <c r="L12">
-        <v>2370</v>
+        <v>7000</v>
       </c>
       <c r="M12">
-        <v>3217</v>
+        <v>5200</v>
       </c>
       <c r="N12">
-        <v>8359</v>
+        <v>8752</v>
       </c>
       <c r="O12">
-        <v>3917</v>
+        <v>10010</v>
       </c>
       <c r="P12">
-        <v>4941</v>
+        <v>7051</v>
       </c>
       <c r="Q12">
-        <v>8407</v>
+        <v>14427</v>
       </c>
       <c r="R12">
-        <v>8792</v>
+        <v>15100</v>
       </c>
       <c r="S12">
-        <v>7520</v>
+        <v>11861</v>
       </c>
       <c r="T12">
-        <v>11598</v>
+        <v>23320</v>
       </c>
       <c r="U12">
-        <v>17049</v>
+        <v>26549</v>
       </c>
       <c r="V12">
-        <v>11903</v>
+        <v>22954</v>
       </c>
       <c r="W12">
-        <v>18602</v>
+        <v>41463</v>
       </c>
       <c r="X12">
-        <v>19622</v>
+        <v>47055</v>
       </c>
       <c r="Y12">
-        <v>23464</v>
+        <v>40030</v>
       </c>
       <c r="Z12">
-        <v>24732</v>
+        <v>104013</v>
       </c>
       <c r="AA12">
-        <v>36150</v>
+        <v>88420</v>
       </c>
       <c r="AB12">
-        <v>30341</v>
+        <v>77482</v>
       </c>
       <c r="AC12">
-        <v>64946</v>
+        <v>164698</v>
       </c>
       <c r="AD12">
-        <v>58216</v>
+        <v>166757</v>
       </c>
       <c r="AE12">
-        <v>49615</v>
+        <v>171595</v>
       </c>
       <c r="AF12">
-        <v>89519</v>
+        <v>378284</v>
       </c>
       <c r="AG12">
-        <v>115729</v>
+        <v>371336</v>
       </c>
       <c r="AH12">
-        <v>104028</v>
+        <v>242277</v>
       </c>
       <c r="AI12">
-        <v>224275</v>
+        <v>464294</v>
       </c>
       <c r="AJ12">
-        <v>208113</v>
+        <v>450911</v>
       </c>
       <c r="AK12">
-        <v>213239</v>
+        <v>392406</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>27.5</v>
       </c>
       <c r="B13">
-        <v>798</v>
+        <v>982</v>
       </c>
       <c r="C13">
-        <v>821</v>
+        <v>1339</v>
       </c>
       <c r="D13">
-        <v>1031</v>
+        <v>1368</v>
       </c>
       <c r="E13">
-        <v>1303</v>
+        <v>1836</v>
       </c>
       <c r="F13">
-        <v>999</v>
+        <v>2077</v>
       </c>
       <c r="G13">
-        <v>1502</v>
+        <v>2189</v>
       </c>
       <c r="H13">
-        <v>1706</v>
+        <v>3018</v>
       </c>
       <c r="I13">
-        <v>1363</v>
+        <v>4869</v>
       </c>
       <c r="J13">
-        <v>1994</v>
+        <v>4391</v>
       </c>
       <c r="K13">
-        <v>2866</v>
+        <v>5309</v>
       </c>
       <c r="L13">
-        <v>2482</v>
+        <v>6924</v>
       </c>
       <c r="M13">
-        <v>2904</v>
+        <v>5057</v>
       </c>
       <c r="N13">
-        <v>7725</v>
+        <v>8180</v>
       </c>
       <c r="O13">
-        <v>3736</v>
+        <v>9606</v>
       </c>
       <c r="P13">
-        <v>4367</v>
+        <v>7214</v>
       </c>
       <c r="Q13">
-        <v>8489</v>
+        <v>13789</v>
       </c>
       <c r="R13">
-        <v>8511</v>
+        <v>14963</v>
       </c>
       <c r="S13">
-        <v>7570</v>
+        <v>11143</v>
       </c>
       <c r="T13">
-        <v>11129</v>
+        <v>23283</v>
       </c>
       <c r="U13">
-        <v>17211</v>
+        <v>27174</v>
       </c>
       <c r="V13">
-        <v>12169</v>
+        <v>22376</v>
       </c>
       <c r="W13">
-        <v>17717</v>
+        <v>41022</v>
       </c>
       <c r="X13">
-        <v>19643</v>
+        <v>46298</v>
       </c>
       <c r="Y13">
-        <v>21827</v>
+        <v>38924</v>
       </c>
       <c r="Z13">
-        <v>23606</v>
+        <v>101944</v>
       </c>
       <c r="AA13">
-        <v>34966</v>
+        <v>86769</v>
       </c>
       <c r="AB13">
-        <v>29488</v>
+        <v>74938</v>
       </c>
       <c r="AC13">
-        <v>64689</v>
+        <v>168565</v>
       </c>
       <c r="AD13">
-        <v>56953</v>
+        <v>164567</v>
       </c>
       <c r="AE13">
-        <v>48387</v>
+        <v>168382</v>
       </c>
       <c r="AF13">
-        <v>86984</v>
+        <v>360170</v>
       </c>
       <c r="AG13">
-        <v>113632</v>
+        <v>360841</v>
       </c>
       <c r="AH13">
-        <v>102494</v>
+        <v>243112</v>
       </c>
       <c r="AI13">
-        <v>222430</v>
+        <v>449861</v>
       </c>
       <c r="AJ13">
-        <v>188273</v>
+        <v>444680</v>
       </c>
       <c r="AK13">
-        <v>204843</v>
+        <v>379718</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>30</v>
       </c>
       <c r="B14">
-        <v>726</v>
+        <v>849</v>
       </c>
       <c r="C14">
-        <v>749</v>
+        <v>1375</v>
       </c>
       <c r="D14">
-        <v>1099</v>
+        <v>1309</v>
       </c>
       <c r="E14">
-        <v>1161</v>
+        <v>1700</v>
       </c>
       <c r="F14">
-        <v>888</v>
+        <v>2007</v>
       </c>
       <c r="G14">
-        <v>1537</v>
+        <v>1837</v>
       </c>
       <c r="H14">
-        <v>1561</v>
+        <v>3031</v>
       </c>
       <c r="I14">
-        <v>1376</v>
+        <v>4674</v>
       </c>
       <c r="J14">
-        <v>2063</v>
+        <v>4181</v>
       </c>
       <c r="K14">
-        <v>2477</v>
+        <v>5046</v>
       </c>
       <c r="L14">
-        <v>2383</v>
+        <v>7245</v>
       </c>
       <c r="M14">
-        <v>2784</v>
+        <v>4880</v>
       </c>
       <c r="N14">
-        <v>7585</v>
+        <v>7813</v>
       </c>
       <c r="O14">
-        <v>3659</v>
+        <v>9533</v>
       </c>
       <c r="P14">
-        <v>4387</v>
+        <v>6695</v>
       </c>
       <c r="Q14">
-        <v>8080</v>
+        <v>13437</v>
       </c>
       <c r="R14">
-        <v>8386</v>
+        <v>14573</v>
       </c>
       <c r="S14">
-        <v>7370</v>
+        <v>10863</v>
       </c>
       <c r="T14">
-        <v>10766</v>
+        <v>22400</v>
       </c>
       <c r="U14">
-        <v>16748</v>
+        <v>25778</v>
       </c>
       <c r="V14">
-        <v>11378</v>
+        <v>21704</v>
       </c>
       <c r="W14">
-        <v>18021</v>
+        <v>39493</v>
       </c>
       <c r="X14">
-        <v>19096</v>
+        <v>46251</v>
       </c>
       <c r="Y14">
-        <v>21968</v>
+        <v>38342</v>
       </c>
       <c r="Z14">
-        <v>23491</v>
+        <v>99632</v>
       </c>
       <c r="AA14">
-        <v>34838</v>
+        <v>84661</v>
       </c>
       <c r="AB14">
-        <v>28105</v>
+        <v>72565</v>
       </c>
       <c r="AC14">
-        <v>63409</v>
+        <v>153362</v>
       </c>
       <c r="AD14">
-        <v>55747</v>
+        <v>162254</v>
       </c>
       <c r="AE14">
-        <v>46374</v>
+        <v>165452</v>
       </c>
       <c r="AF14">
-        <v>86326</v>
+        <v>355309</v>
       </c>
       <c r="AG14">
-        <v>107525</v>
+        <v>342686</v>
       </c>
       <c r="AH14">
-        <v>99688</v>
+        <v>230064</v>
       </c>
       <c r="AI14">
-        <v>222766</v>
+        <v>430933</v>
       </c>
       <c r="AJ14">
-        <v>190943</v>
+        <v>426704</v>
       </c>
       <c r="AK14">
-        <v>198871</v>
+        <v>371242</v>
       </c>
     </row>
   </sheetData>
